--- a/Data/exh1.xlsx
+++ b/Data/exh1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://clemson-my.sharepoint.com/personal/meschef_clemson_edu/Documents/Econ_Trends/Econ-Trends/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EBF3F3D5-C3EC-9F45-B2BA-EEF63E023E7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{93ED5E9E-4959-A547-B055-C7D9B23A1DCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-60" yWindow="500" windowWidth="35840" windowHeight="20200" xr2:uid="{9086DCE3-891A-4468-8E67-F562A612088C}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33300" windowHeight="18540" xr2:uid="{36B61F2D-FA53-442A-A6BC-3B3DDC62AE0E}"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
     <definedName name="gsfimpcountries">'[1]SF Goods Imports'!$A$4:$S$4</definedName>
     <definedName name="gsfimpquarters">'[1]SF Goods Imports'!$A$4:$A$500</definedName>
     <definedName name="PRINT">#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'1'!$A$1:$J$55</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'1'!$A$1:$J$53</definedName>
     <definedName name="qlookup">[1]Codes!$A$22:$B$25</definedName>
     <definedName name="snsaexp">'[1]NSA Services Exports'!$A$4:$S$500</definedName>
     <definedName name="snsaexpcountries">'[1]NSA Services Exports'!$A$4:$S$4</definedName>
@@ -91,7 +91,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="42">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -102,7 +102,7 @@
     <t>Exhibit 1. U.S. International Trade in Goods and Services</t>
   </si>
   <si>
-    <t>In millions of dollars. Details may not equal totals due to seasonal adjustment and rounding. (R) - Revised.</t>
+    <t>In millions of dollars. Details may not equal totals due to seasonal adjustment and rounding.  (R) - Revised.</t>
   </si>
   <si>
     <t>Period</t>
@@ -129,10 +129,7 @@
     <t>2019</t>
   </si>
   <si>
-    <t>Jan. - Dec.</t>
-  </si>
-  <si>
-    <t>Jan. - Sep.</t>
+    <t>Jan.- Dec.</t>
   </si>
   <si>
     <t>January</t>
@@ -177,13 +174,40 @@
     <t>2021</t>
   </si>
   <si>
-    <t>August (R)</t>
+    <t xml:space="preserve">January (R) </t>
   </si>
   <si>
-    <t/>
+    <t xml:space="preserve">February (R) </t>
   </si>
   <si>
-    <t>August data as published last month:</t>
+    <t xml:space="preserve">March (R) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">April (R) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">May (R) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">June (R) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">July (R) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">August (R) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">September (R) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">October (R) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">November (R) </t>
+  </si>
+  <si>
+    <t>November data as published last month:</t>
   </si>
   <si>
     <t>(1) Data are presented on a balance of payments (BOP) basis.</t>
@@ -199,7 +223,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <name val="Arial"/>
@@ -224,6 +248,11 @@
     </font>
     <font>
       <b/>
+      <sz val="16"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
       <sz val="16"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -260,7 +289,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="27">
+  <borders count="30">
     <border>
       <left/>
       <right/>
@@ -270,14 +299,14 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color indexed="8"/>
       </left>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color indexed="8"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color indexed="8"/>
       </bottom>
       <diagonal/>
     </border>
@@ -285,23 +314,23 @@
       <left/>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color indexed="8"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color indexed="8"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color indexed="8"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color indexed="8"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color indexed="8"/>
       </bottom>
       <diagonal/>
     </border>
@@ -337,6 +366,34 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
+      <right/>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right style="double">
         <color indexed="64"/>
       </right>
@@ -349,9 +406,7 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color indexed="64"/>
-      </left>
+      <left/>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -395,6 +450,34 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right style="double">
         <color indexed="64"/>
       </right>
@@ -407,9 +490,7 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color indexed="64"/>
-      </left>
+      <left/>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -466,57 +547,6 @@
       <top style="double">
         <color indexed="64"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="double">
-        <color indexed="64"/>
-      </right>
-      <top/>
       <bottom/>
       <diagonal/>
     </border>
@@ -583,10 +613,52 @@
     </border>
     <border>
       <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right/>
-      <top style="thin">
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
         <color indexed="64"/>
-      </top>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="double">
+        <color indexed="64"/>
+      </right>
+      <top/>
       <bottom/>
       <diagonal/>
     </border>
@@ -594,7 +666,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -604,19 +676,19 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
@@ -632,62 +704,70 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -56675,13 +56755,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF20D2DF-F3A8-4E60-8AFE-DE06098E7359}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37D9DB04-FA09-4CE1-8B9C-1BE781DF3619}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:HY63"/>
+  <dimension ref="A1:HY53"/>
   <sheetViews>
-    <sheetView tabSelected="1" showOutlineSymbols="0" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="70" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A53" sqref="A53"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.5703125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -56913,7 +56995,7 @@
       <c r="I3" s="8"/>
       <c r="J3" s="8"/>
     </row>
-    <row r="4" spans="1:10" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
         <v>3</v>
       </c>
@@ -56928,7 +57010,7 @@
       <c r="J4" s="11"/>
     </row>
     <row r="5" spans="1:10" ht="25" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="49" t="s">
+      <c r="A5" s="52" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="12" t="s">
@@ -56940,1711 +57022,1640 @@
         <v>6</v>
       </c>
       <c r="F5" s="12"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="14" t="s">
+      <c r="G5" s="15"/>
+      <c r="H5" s="16" t="s">
         <v>7</v>
       </c>
       <c r="I5" s="12"/>
       <c r="J5" s="12"/>
     </row>
     <row r="6" spans="1:10" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="50"/>
-      <c r="B6" s="15" t="s">
+      <c r="A6" s="53"/>
+      <c r="B6" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="15" t="s">
+      <c r="C6" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="16" t="s">
+      <c r="D6" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="17" t="s">
+      <c r="E6" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="15" t="s">
+      <c r="F6" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="G6" s="16" t="s">
+      <c r="G6" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="H6" s="17" t="s">
+      <c r="H6" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="I6" s="15" t="s">
+      <c r="I6" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="J6" s="15" t="s">
+      <c r="J6" s="17" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="30.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="18" t="s">
+      <c r="A7" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="19"/>
-      <c r="C7" s="19"/>
-      <c r="D7" s="20"/>
-      <c r="E7" s="21"/>
-      <c r="F7" s="19"/>
-      <c r="G7" s="22"/>
-      <c r="H7" s="23"/>
-      <c r="I7" s="19"/>
-      <c r="J7" s="20"/>
+      <c r="B7" s="23"/>
+      <c r="C7" s="23"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="23"/>
+      <c r="G7" s="26"/>
+      <c r="H7" s="27"/>
+      <c r="I7" s="23"/>
+      <c r="J7" s="24"/>
     </row>
     <row r="8" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="24" t="s">
+      <c r="A8" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="25">
+      <c r="B8" s="29">
         <v>-576341</v>
       </c>
-      <c r="C8" s="25">
+      <c r="C8" s="29">
         <v>-861515</v>
       </c>
-      <c r="D8" s="26">
+      <c r="D8" s="30">
         <v>285174</v>
       </c>
-      <c r="E8" s="27">
+      <c r="E8" s="31">
         <v>2528367</v>
       </c>
-      <c r="F8" s="25">
+      <c r="F8" s="29">
         <v>1652072</v>
       </c>
-      <c r="G8" s="28">
+      <c r="G8" s="32">
         <v>876295</v>
       </c>
-      <c r="H8" s="29">
+      <c r="H8" s="33">
         <v>3104708</v>
       </c>
-      <c r="I8" s="25">
+      <c r="I8" s="29">
         <v>2513587</v>
       </c>
-      <c r="J8" s="26">
+      <c r="J8" s="30">
         <v>591121</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="30" t="s">
+    <row r="9" spans="1:10" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="31">
-        <v>-447604</v>
-      </c>
-      <c r="C9" s="31">
-        <v>-660342</v>
-      </c>
-      <c r="D9" s="32">
-        <v>212738</v>
-      </c>
-      <c r="E9" s="33">
-        <v>1898589</v>
-      </c>
-      <c r="F9" s="31">
-        <v>1242946</v>
-      </c>
-      <c r="G9" s="34">
-        <v>655643</v>
-      </c>
-      <c r="H9" s="35">
-        <v>2346193</v>
-      </c>
-      <c r="I9" s="31">
-        <v>1903288</v>
-      </c>
-      <c r="J9" s="32">
-        <v>442905</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" s="25">
+      <c r="B9" s="35">
         <v>-48818</v>
       </c>
-      <c r="C10" s="25">
+      <c r="C9" s="35">
         <v>-72422</v>
       </c>
-      <c r="D10" s="26">
+      <c r="D9" s="36">
         <v>23604</v>
       </c>
-      <c r="E10" s="27">
+      <c r="E9" s="37">
         <v>209087</v>
       </c>
-      <c r="F10" s="25">
+      <c r="F9" s="35">
         <v>137716</v>
       </c>
-      <c r="G10" s="28">
+      <c r="G9" s="38">
         <v>71371</v>
       </c>
-      <c r="H10" s="29">
+      <c r="H9" s="39">
         <v>257905</v>
       </c>
-      <c r="I10" s="25">
+      <c r="I9" s="35">
         <v>210138</v>
       </c>
-      <c r="J10" s="26">
+      <c r="J9" s="36">
         <v>47768</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="24" t="s">
-        <v>15</v>
+    <row r="10" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="34" t="s">
+        <v>14</v>
       </c>
-      <c r="B11" s="25">
+      <c r="B10" s="35">
         <v>-48032</v>
       </c>
-      <c r="C11" s="25">
+      <c r="C10" s="35">
         <v>-71831</v>
       </c>
-      <c r="D11" s="26">
+      <c r="D10" s="36">
         <v>23799</v>
       </c>
-      <c r="E11" s="27">
+      <c r="E10" s="37">
         <v>210133</v>
       </c>
-      <c r="F11" s="25">
+      <c r="F10" s="35">
         <v>138255</v>
       </c>
-      <c r="G11" s="28">
+      <c r="G10" s="38">
         <v>71878</v>
       </c>
-      <c r="H11" s="29">
+      <c r="H10" s="39">
         <v>258165</v>
       </c>
-      <c r="I11" s="25">
+      <c r="I10" s="35">
         <v>210086</v>
       </c>
-      <c r="J11" s="26">
+      <c r="J10" s="36">
         <v>48079</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="24" t="s">
-        <v>16</v>
+    <row r="11" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="34" t="s">
+        <v>15</v>
       </c>
-      <c r="B12" s="25">
+      <c r="B11" s="35">
         <v>-49777</v>
       </c>
-      <c r="C12" s="25">
+      <c r="C11" s="35">
         <v>-73355</v>
       </c>
-      <c r="D12" s="26">
+      <c r="D11" s="36">
         <v>23578</v>
       </c>
-      <c r="E12" s="27">
+      <c r="E11" s="37">
         <v>213813</v>
       </c>
-      <c r="F12" s="25">
+      <c r="F11" s="35">
         <v>141183</v>
       </c>
-      <c r="G12" s="28">
+      <c r="G11" s="38">
         <v>72630</v>
       </c>
-      <c r="H12" s="29">
+      <c r="H11" s="39">
         <v>263590</v>
       </c>
-      <c r="I12" s="25">
+      <c r="I11" s="35">
         <v>214538</v>
       </c>
-      <c r="J12" s="26">
+      <c r="J11" s="36">
         <v>49052</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="24" t="s">
-        <v>17</v>
+    <row r="12" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="34" t="s">
+        <v>16</v>
       </c>
-      <c r="B13" s="25">
+      <c r="B12" s="35">
         <v>-50074</v>
       </c>
-      <c r="C13" s="25">
+      <c r="C12" s="35">
         <v>-73654</v>
       </c>
-      <c r="D13" s="26">
+      <c r="D12" s="36">
         <v>23580</v>
       </c>
-      <c r="E13" s="27">
+      <c r="E12" s="37">
         <v>210289</v>
       </c>
-      <c r="F13" s="25">
+      <c r="F12" s="35">
         <v>137284</v>
       </c>
-      <c r="G13" s="28">
+      <c r="G12" s="38">
         <v>73005</v>
       </c>
-      <c r="H13" s="29">
+      <c r="H12" s="39">
         <v>260363</v>
       </c>
-      <c r="I13" s="25">
+      <c r="I12" s="35">
         <v>210937</v>
       </c>
-      <c r="J13" s="26">
+      <c r="J12" s="36">
         <v>49425</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="24" t="s">
-        <v>18</v>
+    <row r="13" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="34" t="s">
+        <v>17</v>
       </c>
-      <c r="B14" s="25">
+      <c r="B13" s="35">
         <v>-51904</v>
       </c>
-      <c r="C14" s="25">
+      <c r="C13" s="35">
         <v>-76423</v>
       </c>
-      <c r="D14" s="26">
+      <c r="D13" s="36">
         <v>24520</v>
       </c>
-      <c r="E14" s="27">
+      <c r="E13" s="37">
         <v>213973</v>
       </c>
-      <c r="F14" s="25">
+      <c r="F13" s="35">
         <v>139993</v>
       </c>
-      <c r="G14" s="28">
+      <c r="G13" s="38">
         <v>73980</v>
       </c>
-      <c r="H14" s="29">
+      <c r="H13" s="39">
         <v>265877</v>
       </c>
-      <c r="I14" s="25">
+      <c r="I13" s="35">
         <v>216416</v>
       </c>
-      <c r="J14" s="26">
+      <c r="J13" s="36">
         <v>49461</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="24" t="s">
-        <v>19</v>
+    <row r="14" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="34" t="s">
+        <v>18</v>
       </c>
-      <c r="B15" s="25">
+      <c r="B14" s="35">
         <v>-50390</v>
       </c>
-      <c r="C15" s="25">
+      <c r="C14" s="35">
         <v>-74285</v>
       </c>
-      <c r="D15" s="26">
+      <c r="D14" s="36">
         <v>23895</v>
       </c>
-      <c r="E15" s="27">
+      <c r="E14" s="37">
         <v>210575</v>
       </c>
-      <c r="F15" s="25">
+      <c r="F14" s="35">
         <v>136744</v>
       </c>
-      <c r="G15" s="28">
+      <c r="G14" s="38">
         <v>73831</v>
       </c>
-      <c r="H15" s="29">
+      <c r="H14" s="39">
         <v>260965</v>
       </c>
-      <c r="I15" s="25">
+      <c r="I14" s="35">
         <v>211029</v>
       </c>
-      <c r="J15" s="26">
+      <c r="J14" s="36">
         <v>49936</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="24" t="s">
-        <v>20</v>
+    <row r="15" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="34" t="s">
+        <v>19</v>
       </c>
-      <c r="B16" s="25">
+      <c r="B15" s="35">
         <v>-49959</v>
       </c>
-      <c r="C16" s="25">
+      <c r="C15" s="35">
         <v>-73237</v>
       </c>
-      <c r="D16" s="26">
+      <c r="D15" s="36">
         <v>23277</v>
       </c>
-      <c r="E16" s="27">
+      <c r="E15" s="37">
         <v>211469</v>
       </c>
-      <c r="F16" s="25">
+      <c r="F15" s="35">
         <v>138532</v>
       </c>
-      <c r="G16" s="28">
+      <c r="G15" s="38">
         <v>72937</v>
       </c>
-      <c r="H16" s="29">
+      <c r="H15" s="39">
         <v>261428</v>
       </c>
-      <c r="I16" s="25">
+      <c r="I15" s="35">
         <v>211768</v>
       </c>
-      <c r="J16" s="26">
+      <c r="J15" s="36">
         <v>49660</v>
       </c>
     </row>
-    <row r="17" spans="1:233" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="24" t="s">
-        <v>21</v>
+    <row r="16" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="34" t="s">
+        <v>20</v>
       </c>
-      <c r="B17" s="25">
+      <c r="B16" s="35">
         <v>-50388</v>
       </c>
-      <c r="C17" s="25">
+      <c r="C16" s="35">
         <v>-73758</v>
       </c>
-      <c r="D17" s="26">
+      <c r="D16" s="36">
         <v>23369</v>
       </c>
-      <c r="E17" s="27">
+      <c r="E16" s="37">
         <v>210474</v>
       </c>
-      <c r="F17" s="25">
+      <c r="F16" s="35">
         <v>137434</v>
       </c>
-      <c r="G17" s="28">
+      <c r="G16" s="38">
         <v>73040</v>
       </c>
-      <c r="H17" s="29">
+      <c r="H16" s="39">
         <v>260862</v>
       </c>
-      <c r="I17" s="25">
+      <c r="I16" s="35">
         <v>211192</v>
       </c>
-      <c r="J17" s="26">
+      <c r="J16" s="36">
         <v>49671</v>
       </c>
     </row>
-    <row r="18" spans="1:233" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="24" t="s">
-        <v>22</v>
+    <row r="17" spans="1:233" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="34" t="s">
+        <v>21</v>
       </c>
-      <c r="B18" s="25">
+      <c r="B17" s="35">
         <v>-48262</v>
       </c>
-      <c r="C18" s="25">
+      <c r="C17" s="35">
         <v>-71377</v>
       </c>
-      <c r="D18" s="26">
+      <c r="D17" s="36">
         <v>23115</v>
       </c>
-      <c r="E18" s="27">
+      <c r="E17" s="37">
         <v>208776</v>
       </c>
-      <c r="F18" s="25">
+      <c r="F17" s="35">
         <v>135806</v>
       </c>
-      <c r="G18" s="28">
+      <c r="G17" s="38">
         <v>72970</v>
       </c>
-      <c r="H18" s="29">
+      <c r="H17" s="39">
         <v>257037</v>
       </c>
-      <c r="I18" s="25">
+      <c r="I17" s="35">
         <v>207183</v>
       </c>
-      <c r="J18" s="26">
+      <c r="J17" s="36">
         <v>49854</v>
       </c>
     </row>
-    <row r="19" spans="1:233" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="24" t="s">
-        <v>23</v>
+    <row r="18" spans="1:233" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="34" t="s">
+        <v>22</v>
       </c>
-      <c r="B19" s="25">
+      <c r="B18" s="35">
         <v>-42720</v>
       </c>
-      <c r="C19" s="25">
+      <c r="C18" s="35">
         <v>-67038</v>
       </c>
-      <c r="D19" s="26">
+      <c r="D18" s="36">
         <v>24318</v>
       </c>
-      <c r="E19" s="27">
+      <c r="E18" s="37">
         <v>210157</v>
       </c>
-      <c r="F19" s="25">
+      <c r="F18" s="35">
         <v>136299</v>
       </c>
-      <c r="G19" s="28">
+      <c r="G18" s="38">
         <v>73857</v>
       </c>
-      <c r="H19" s="29">
+      <c r="H18" s="39">
         <v>252877</v>
       </c>
-      <c r="I19" s="25">
+      <c r="I18" s="35">
         <v>203338</v>
       </c>
-      <c r="J19" s="26">
+      <c r="J18" s="36">
         <v>49539</v>
       </c>
     </row>
+    <row r="19" spans="1:233" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="34" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" s="35">
+        <v>-40596</v>
+      </c>
+      <c r="C19" s="35">
+        <v>-64945</v>
+      </c>
+      <c r="D19" s="36">
+        <v>24349</v>
+      </c>
+      <c r="E19" s="37">
+        <v>209739</v>
+      </c>
+      <c r="F19" s="35">
+        <v>136127</v>
+      </c>
+      <c r="G19" s="38">
+        <v>73611</v>
+      </c>
+      <c r="H19" s="39">
+        <v>250335</v>
+      </c>
+      <c r="I19" s="35">
+        <v>201072</v>
+      </c>
+      <c r="J19" s="36">
+        <v>49263</v>
+      </c>
+    </row>
     <row r="20" spans="1:233" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="24" t="s">
+      <c r="A20" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="B20" s="25">
-        <v>-40596</v>
+      <c r="B20" s="35">
+        <v>-45421</v>
       </c>
-      <c r="C20" s="25">
-        <v>-64945</v>
+      <c r="C20" s="35">
+        <v>-69191</v>
       </c>
-      <c r="D20" s="26">
-        <v>24349</v>
+      <c r="D20" s="36">
+        <v>23769</v>
       </c>
-      <c r="E20" s="27">
-        <v>209739</v>
+      <c r="E20" s="37">
+        <v>209883</v>
       </c>
-      <c r="F20" s="25">
-        <v>136127</v>
+      <c r="F20" s="35">
+        <v>136699</v>
       </c>
-      <c r="G20" s="28">
-        <v>73611</v>
+      <c r="G20" s="38">
+        <v>73184</v>
       </c>
-      <c r="H20" s="29">
-        <v>250335</v>
+      <c r="H20" s="39">
+        <v>255304</v>
       </c>
-      <c r="I20" s="25">
-        <v>201072</v>
+      <c r="I20" s="35">
+        <v>205889</v>
       </c>
-      <c r="J20" s="26">
-        <v>49263</v>
+      <c r="J20" s="36">
+        <v>49415</v>
       </c>
-      <c r="K20" s="36"/>
-      <c r="L20" s="36"/>
-      <c r="M20" s="36"/>
-      <c r="N20" s="36"/>
-      <c r="O20" s="36"/>
-      <c r="P20" s="36"/>
-      <c r="Q20" s="36"/>
-      <c r="R20" s="36"/>
-      <c r="S20" s="36"/>
-      <c r="T20" s="36"/>
-      <c r="U20" s="36"/>
-      <c r="V20" s="36"/>
-      <c r="W20" s="36"/>
-      <c r="X20" s="36"/>
-      <c r="Y20" s="36"/>
-      <c r="Z20" s="36"/>
-      <c r="AA20" s="36"/>
-      <c r="AB20" s="36"/>
-      <c r="AC20" s="36"/>
-      <c r="AD20" s="36"/>
-      <c r="AE20" s="36"/>
-      <c r="AF20" s="36"/>
-      <c r="AG20" s="36"/>
-      <c r="AH20" s="36"/>
-      <c r="AI20" s="36"/>
-      <c r="AJ20" s="36"/>
-      <c r="AK20" s="36"/>
-      <c r="AL20" s="36"/>
-      <c r="AM20" s="36"/>
-      <c r="AN20" s="36"/>
-      <c r="AO20" s="36"/>
-      <c r="AP20" s="36"/>
-      <c r="AQ20" s="36"/>
-      <c r="AR20" s="36"/>
-      <c r="AS20" s="36"/>
-      <c r="AT20" s="36"/>
-      <c r="AU20" s="36"/>
-      <c r="AV20" s="36"/>
-      <c r="AW20" s="36"/>
-      <c r="AX20" s="36"/>
-      <c r="AY20" s="36"/>
-      <c r="AZ20" s="36"/>
-      <c r="BA20" s="36"/>
-      <c r="BB20" s="36"/>
-      <c r="BC20" s="36"/>
-      <c r="BD20" s="36"/>
-      <c r="BE20" s="36"/>
-      <c r="BF20" s="36"/>
-      <c r="BG20" s="36"/>
-      <c r="BH20" s="36"/>
-      <c r="BI20" s="36"/>
-      <c r="BJ20" s="36"/>
-      <c r="BK20" s="36"/>
-      <c r="BL20" s="36"/>
-      <c r="BM20" s="36"/>
-      <c r="BN20" s="36"/>
-      <c r="BO20" s="36"/>
-      <c r="BP20" s="36"/>
-      <c r="BQ20" s="36"/>
-      <c r="BR20" s="36"/>
-      <c r="BS20" s="36"/>
-      <c r="BT20" s="36"/>
-      <c r="BU20" s="36"/>
-      <c r="BV20" s="36"/>
-      <c r="BW20" s="36"/>
-      <c r="BX20" s="36"/>
-      <c r="BY20" s="36"/>
-      <c r="BZ20" s="36"/>
-      <c r="CA20" s="36"/>
-      <c r="CB20" s="36"/>
-      <c r="CC20" s="36"/>
-      <c r="CD20" s="36"/>
-      <c r="CE20" s="36"/>
-      <c r="CF20" s="36"/>
-      <c r="CG20" s="36"/>
-      <c r="CH20" s="36"/>
-      <c r="CI20" s="36"/>
-      <c r="CJ20" s="36"/>
-      <c r="CK20" s="36"/>
-      <c r="CL20" s="36"/>
-      <c r="CM20" s="36"/>
-      <c r="CN20" s="36"/>
-      <c r="CO20" s="36"/>
-      <c r="CP20" s="36"/>
-      <c r="CQ20" s="36"/>
-      <c r="CR20" s="36"/>
-      <c r="CS20" s="36"/>
-      <c r="CT20" s="36"/>
-      <c r="CU20" s="36"/>
-      <c r="CV20" s="36"/>
-      <c r="CW20" s="36"/>
-      <c r="CX20" s="36"/>
-      <c r="CY20" s="36"/>
-      <c r="CZ20" s="36"/>
-      <c r="DA20" s="36"/>
-      <c r="DB20" s="36"/>
-      <c r="DC20" s="36"/>
-      <c r="DD20" s="36"/>
-      <c r="DE20" s="36"/>
-      <c r="DF20" s="36"/>
-      <c r="DG20" s="36"/>
-      <c r="DH20" s="36"/>
-      <c r="DI20" s="36"/>
-      <c r="DJ20" s="36"/>
-      <c r="DK20" s="36"/>
-      <c r="DL20" s="36"/>
-      <c r="DM20" s="36"/>
-      <c r="DN20" s="36"/>
-      <c r="DO20" s="36"/>
-      <c r="DP20" s="36"/>
-      <c r="DQ20" s="36"/>
-      <c r="DR20" s="36"/>
-      <c r="DS20" s="36"/>
-      <c r="DT20" s="36"/>
-      <c r="DU20" s="36"/>
-      <c r="DV20" s="36"/>
-      <c r="DW20" s="36"/>
-      <c r="DX20" s="36"/>
-      <c r="DY20" s="36"/>
-      <c r="DZ20" s="36"/>
-      <c r="EA20" s="36"/>
-      <c r="EB20" s="36"/>
-      <c r="EC20" s="36"/>
-      <c r="ED20" s="36"/>
-      <c r="EE20" s="36"/>
-      <c r="EF20" s="36"/>
-      <c r="EG20" s="36"/>
-      <c r="EH20" s="36"/>
-      <c r="EI20" s="36"/>
-      <c r="EJ20" s="36"/>
-      <c r="EK20" s="36"/>
-      <c r="EL20" s="36"/>
-      <c r="EM20" s="36"/>
-      <c r="EN20" s="36"/>
-      <c r="EO20" s="36"/>
-      <c r="EP20" s="36"/>
-      <c r="EQ20" s="36"/>
-      <c r="ER20" s="36"/>
-      <c r="ES20" s="36"/>
-      <c r="ET20" s="36"/>
-      <c r="EU20" s="36"/>
-      <c r="EV20" s="36"/>
-      <c r="EW20" s="36"/>
-      <c r="EX20" s="36"/>
-      <c r="EY20" s="36"/>
-      <c r="EZ20" s="36"/>
-      <c r="FA20" s="36"/>
-      <c r="FB20" s="36"/>
-      <c r="FC20" s="36"/>
-      <c r="FD20" s="36"/>
-      <c r="FE20" s="36"/>
-      <c r="FF20" s="36"/>
-      <c r="FG20" s="36"/>
-      <c r="FH20" s="36"/>
-      <c r="FI20" s="36"/>
-      <c r="FJ20" s="36"/>
-      <c r="FK20" s="36"/>
-      <c r="FL20" s="36"/>
-      <c r="FM20" s="36"/>
-      <c r="FN20" s="36"/>
-      <c r="FO20" s="36"/>
-      <c r="FP20" s="36"/>
-      <c r="FQ20" s="36"/>
-      <c r="FR20" s="36"/>
-      <c r="FS20" s="36"/>
-      <c r="FT20" s="36"/>
-      <c r="FU20" s="36"/>
-      <c r="FV20" s="36"/>
-      <c r="FW20" s="36"/>
-      <c r="FX20" s="36"/>
-      <c r="FY20" s="36"/>
-      <c r="FZ20" s="36"/>
-      <c r="GA20" s="36"/>
-      <c r="GB20" s="36"/>
-      <c r="GC20" s="36"/>
-      <c r="GD20" s="36"/>
-      <c r="GE20" s="36"/>
-      <c r="GF20" s="36"/>
-      <c r="GG20" s="36"/>
-      <c r="GH20" s="36"/>
-      <c r="GI20" s="36"/>
-      <c r="GJ20" s="36"/>
-      <c r="GK20" s="36"/>
-      <c r="GL20" s="36"/>
-      <c r="GM20" s="36"/>
-      <c r="GN20" s="36"/>
-      <c r="GO20" s="36"/>
-      <c r="GP20" s="36"/>
-      <c r="GQ20" s="36"/>
-      <c r="GR20" s="36"/>
-      <c r="GS20" s="36"/>
-      <c r="GT20" s="36"/>
-      <c r="GU20" s="36"/>
-      <c r="GV20" s="36"/>
-      <c r="GW20" s="36"/>
-      <c r="GX20" s="36"/>
-      <c r="GY20" s="36"/>
-      <c r="GZ20" s="36"/>
-      <c r="HA20" s="36"/>
-      <c r="HB20" s="36"/>
-      <c r="HC20" s="36"/>
-      <c r="HD20" s="36"/>
-      <c r="HE20" s="36"/>
-      <c r="HF20" s="36"/>
-      <c r="HG20" s="36"/>
-      <c r="HH20" s="36"/>
-      <c r="HI20" s="36"/>
-      <c r="HJ20" s="36"/>
-      <c r="HK20" s="36"/>
-      <c r="HL20" s="36"/>
-      <c r="HM20" s="36"/>
-      <c r="HN20" s="36"/>
-      <c r="HO20" s="36"/>
-      <c r="HP20" s="36"/>
-      <c r="HQ20" s="36"/>
-      <c r="HR20" s="36"/>
-      <c r="HS20" s="36"/>
-      <c r="HT20" s="36"/>
-      <c r="HU20" s="36"/>
-      <c r="HV20" s="36"/>
-      <c r="HW20" s="36"/>
-      <c r="HX20" s="36"/>
-      <c r="HY20" s="36"/>
+      <c r="K20" s="40"/>
+      <c r="L20" s="40"/>
+      <c r="M20" s="40"/>
+      <c r="N20" s="40"/>
+      <c r="O20" s="40"/>
+      <c r="P20" s="40"/>
+      <c r="Q20" s="40"/>
+      <c r="R20" s="40"/>
+      <c r="S20" s="40"/>
+      <c r="T20" s="40"/>
+      <c r="U20" s="40"/>
+      <c r="V20" s="40"/>
+      <c r="W20" s="40"/>
+      <c r="X20" s="40"/>
+      <c r="Y20" s="40"/>
+      <c r="Z20" s="40"/>
+      <c r="AA20" s="40"/>
+      <c r="AB20" s="40"/>
+      <c r="AC20" s="40"/>
+      <c r="AD20" s="40"/>
+      <c r="AE20" s="40"/>
+      <c r="AF20" s="40"/>
+      <c r="AG20" s="40"/>
+      <c r="AH20" s="40"/>
+      <c r="AI20" s="40"/>
+      <c r="AJ20" s="40"/>
+      <c r="AK20" s="40"/>
+      <c r="AL20" s="40"/>
+      <c r="AM20" s="40"/>
+      <c r="AN20" s="40"/>
+      <c r="AO20" s="40"/>
+      <c r="AP20" s="40"/>
+      <c r="AQ20" s="40"/>
+      <c r="AR20" s="40"/>
+      <c r="AS20" s="40"/>
+      <c r="AT20" s="40"/>
+      <c r="AU20" s="40"/>
+      <c r="AV20" s="40"/>
+      <c r="AW20" s="40"/>
+      <c r="AX20" s="40"/>
+      <c r="AY20" s="40"/>
+      <c r="AZ20" s="40"/>
+      <c r="BA20" s="40"/>
+      <c r="BB20" s="40"/>
+      <c r="BC20" s="40"/>
+      <c r="BD20" s="40"/>
+      <c r="BE20" s="40"/>
+      <c r="BF20" s="40"/>
+      <c r="BG20" s="40"/>
+      <c r="BH20" s="40"/>
+      <c r="BI20" s="40"/>
+      <c r="BJ20" s="40"/>
+      <c r="BK20" s="40"/>
+      <c r="BL20" s="40"/>
+      <c r="BM20" s="40"/>
+      <c r="BN20" s="40"/>
+      <c r="BO20" s="40"/>
+      <c r="BP20" s="40"/>
+      <c r="BQ20" s="40"/>
+      <c r="BR20" s="40"/>
+      <c r="BS20" s="40"/>
+      <c r="BT20" s="40"/>
+      <c r="BU20" s="40"/>
+      <c r="BV20" s="40"/>
+      <c r="BW20" s="40"/>
+      <c r="BX20" s="40"/>
+      <c r="BY20" s="40"/>
+      <c r="BZ20" s="40"/>
+      <c r="CA20" s="40"/>
+      <c r="CB20" s="40"/>
+      <c r="CC20" s="40"/>
+      <c r="CD20" s="40"/>
+      <c r="CE20" s="40"/>
+      <c r="CF20" s="40"/>
+      <c r="CG20" s="40"/>
+      <c r="CH20" s="40"/>
+      <c r="CI20" s="40"/>
+      <c r="CJ20" s="40"/>
+      <c r="CK20" s="40"/>
+      <c r="CL20" s="40"/>
+      <c r="CM20" s="40"/>
+      <c r="CN20" s="40"/>
+      <c r="CO20" s="40"/>
+      <c r="CP20" s="40"/>
+      <c r="CQ20" s="40"/>
+      <c r="CR20" s="40"/>
+      <c r="CS20" s="40"/>
+      <c r="CT20" s="40"/>
+      <c r="CU20" s="40"/>
+      <c r="CV20" s="40"/>
+      <c r="CW20" s="40"/>
+      <c r="CX20" s="40"/>
+      <c r="CY20" s="40"/>
+      <c r="CZ20" s="40"/>
+      <c r="DA20" s="40"/>
+      <c r="DB20" s="40"/>
+      <c r="DC20" s="40"/>
+      <c r="DD20" s="40"/>
+      <c r="DE20" s="40"/>
+      <c r="DF20" s="40"/>
+      <c r="DG20" s="40"/>
+      <c r="DH20" s="40"/>
+      <c r="DI20" s="40"/>
+      <c r="DJ20" s="40"/>
+      <c r="DK20" s="40"/>
+      <c r="DL20" s="40"/>
+      <c r="DM20" s="40"/>
+      <c r="DN20" s="40"/>
+      <c r="DO20" s="40"/>
+      <c r="DP20" s="40"/>
+      <c r="DQ20" s="40"/>
+      <c r="DR20" s="40"/>
+      <c r="DS20" s="40"/>
+      <c r="DT20" s="40"/>
+      <c r="DU20" s="40"/>
+      <c r="DV20" s="40"/>
+      <c r="DW20" s="40"/>
+      <c r="DX20" s="40"/>
+      <c r="DY20" s="40"/>
+      <c r="DZ20" s="40"/>
+      <c r="EA20" s="40"/>
+      <c r="EB20" s="40"/>
+      <c r="EC20" s="40"/>
+      <c r="ED20" s="40"/>
+      <c r="EE20" s="40"/>
+      <c r="EF20" s="40"/>
+      <c r="EG20" s="40"/>
+      <c r="EH20" s="40"/>
+      <c r="EI20" s="40"/>
+      <c r="EJ20" s="40"/>
+      <c r="EK20" s="40"/>
+      <c r="EL20" s="40"/>
+      <c r="EM20" s="40"/>
+      <c r="EN20" s="40"/>
+      <c r="EO20" s="40"/>
+      <c r="EP20" s="40"/>
+      <c r="EQ20" s="40"/>
+      <c r="ER20" s="40"/>
+      <c r="ES20" s="40"/>
+      <c r="ET20" s="40"/>
+      <c r="EU20" s="40"/>
+      <c r="EV20" s="40"/>
+      <c r="EW20" s="40"/>
+      <c r="EX20" s="40"/>
+      <c r="EY20" s="40"/>
+      <c r="EZ20" s="40"/>
+      <c r="FA20" s="40"/>
+      <c r="FB20" s="40"/>
+      <c r="FC20" s="40"/>
+      <c r="FD20" s="40"/>
+      <c r="FE20" s="40"/>
+      <c r="FF20" s="40"/>
+      <c r="FG20" s="40"/>
+      <c r="FH20" s="40"/>
+      <c r="FI20" s="40"/>
+      <c r="FJ20" s="40"/>
+      <c r="FK20" s="40"/>
+      <c r="FL20" s="40"/>
+      <c r="FM20" s="40"/>
+      <c r="FN20" s="40"/>
+      <c r="FO20" s="40"/>
+      <c r="FP20" s="40"/>
+      <c r="FQ20" s="40"/>
+      <c r="FR20" s="40"/>
+      <c r="FS20" s="40"/>
+      <c r="FT20" s="40"/>
+      <c r="FU20" s="40"/>
+      <c r="FV20" s="40"/>
+      <c r="FW20" s="40"/>
+      <c r="FX20" s="40"/>
+      <c r="FY20" s="40"/>
+      <c r="FZ20" s="40"/>
+      <c r="GA20" s="40"/>
+      <c r="GB20" s="40"/>
+      <c r="GC20" s="40"/>
+      <c r="GD20" s="40"/>
+      <c r="GE20" s="40"/>
+      <c r="GF20" s="40"/>
+      <c r="GG20" s="40"/>
+      <c r="GH20" s="40"/>
+      <c r="GI20" s="40"/>
+      <c r="GJ20" s="40"/>
+      <c r="GK20" s="40"/>
+      <c r="GL20" s="40"/>
+      <c r="GM20" s="40"/>
+      <c r="GN20" s="40"/>
+      <c r="GO20" s="40"/>
+      <c r="GP20" s="40"/>
+      <c r="GQ20" s="40"/>
+      <c r="GR20" s="40"/>
+      <c r="GS20" s="40"/>
+      <c r="GT20" s="40"/>
+      <c r="GU20" s="40"/>
+      <c r="GV20" s="40"/>
+      <c r="GW20" s="40"/>
+      <c r="GX20" s="40"/>
+      <c r="GY20" s="40"/>
+      <c r="GZ20" s="40"/>
+      <c r="HA20" s="40"/>
+      <c r="HB20" s="40"/>
+      <c r="HC20" s="40"/>
+      <c r="HD20" s="40"/>
+      <c r="HE20" s="40"/>
+      <c r="HF20" s="40"/>
+      <c r="HG20" s="40"/>
+      <c r="HH20" s="40"/>
+      <c r="HI20" s="40"/>
+      <c r="HJ20" s="40"/>
+      <c r="HK20" s="40"/>
+      <c r="HL20" s="40"/>
+      <c r="HM20" s="40"/>
+      <c r="HN20" s="40"/>
+      <c r="HO20" s="40"/>
+      <c r="HP20" s="40"/>
+      <c r="HQ20" s="40"/>
+      <c r="HR20" s="40"/>
+      <c r="HS20" s="40"/>
+      <c r="HT20" s="40"/>
+      <c r="HU20" s="40"/>
+      <c r="HV20" s="40"/>
+      <c r="HW20" s="40"/>
+      <c r="HX20" s="40"/>
+      <c r="HY20" s="40"/>
     </row>
-    <row r="21" spans="1:233" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="24" t="s">
+    <row r="21" spans="1:233" ht="30.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="41" t="s">
         <v>25</v>
       </c>
-      <c r="B21" s="25">
-        <v>-45421</v>
-      </c>
-      <c r="C21" s="25">
-        <v>-69191</v>
-      </c>
-      <c r="D21" s="26">
-        <v>23769</v>
-      </c>
-      <c r="E21" s="27">
-        <v>209883</v>
-      </c>
-      <c r="F21" s="25">
-        <v>136699</v>
-      </c>
-      <c r="G21" s="28">
-        <v>73184</v>
-      </c>
-      <c r="H21" s="29">
-        <v>255304</v>
-      </c>
-      <c r="I21" s="25">
-        <v>205889</v>
-      </c>
-      <c r="J21" s="26">
-        <v>49415</v>
-      </c>
+      <c r="B21" s="42"/>
+      <c r="C21" s="42"/>
+      <c r="D21" s="43"/>
+      <c r="E21" s="44"/>
+      <c r="F21" s="42"/>
+      <c r="G21" s="45"/>
+      <c r="H21" s="46"/>
+      <c r="I21" s="42"/>
+      <c r="J21" s="43"/>
     </row>
-    <row r="22" spans="1:233" ht="30.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="37" t="s">
-        <v>26</v>
-      </c>
-      <c r="B22" s="38"/>
-      <c r="C22" s="38"/>
-      <c r="D22" s="39"/>
-      <c r="E22" s="40"/>
-      <c r="F22" s="38"/>
-      <c r="G22" s="41"/>
-      <c r="H22" s="42"/>
-      <c r="I22" s="38"/>
-      <c r="J22" s="39"/>
-    </row>
-    <row r="23" spans="1:233" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="24" t="s">
+    <row r="22" spans="1:233" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="B23" s="25">
+      <c r="B22" s="29">
         <v>-676684</v>
       </c>
-      <c r="C23" s="25">
+      <c r="C22" s="29">
         <v>-922026</v>
       </c>
-      <c r="D23" s="26">
+      <c r="D22" s="30">
         <v>245342</v>
       </c>
-      <c r="E23" s="27">
+      <c r="E22" s="31">
         <v>2134441</v>
       </c>
-      <c r="F23" s="25">
+      <c r="F22" s="29">
         <v>1428798</v>
       </c>
-      <c r="G23" s="28">
+      <c r="G22" s="32">
         <v>705643</v>
       </c>
-      <c r="H23" s="29">
+      <c r="H22" s="33">
         <v>2811125</v>
       </c>
-      <c r="I23" s="25">
+      <c r="I22" s="29">
         <v>2350825</v>
       </c>
-      <c r="J23" s="26">
+      <c r="J22" s="30">
         <v>460301</v>
       </c>
     </row>
-    <row r="24" spans="1:233" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="30" t="s">
+    <row r="23" spans="1:233" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="B24" s="31">
-        <v>-479898</v>
-      </c>
-      <c r="C24" s="31">
-        <v>-668901</v>
-      </c>
-      <c r="D24" s="32">
-        <v>189004</v>
-      </c>
-      <c r="E24" s="33">
-        <v>1575646</v>
-      </c>
-      <c r="F24" s="31">
-        <v>1044748</v>
-      </c>
-      <c r="G24" s="34">
-        <v>530898</v>
-      </c>
-      <c r="H24" s="35">
-        <v>2055544</v>
-      </c>
-      <c r="I24" s="31">
-        <v>1713650</v>
-      </c>
-      <c r="J24" s="32">
-        <v>341894</v>
-      </c>
-    </row>
-    <row r="25" spans="1:233" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="B25" s="25">
+      <c r="B23" s="35">
         <v>-45452</v>
       </c>
-      <c r="C25" s="25">
+      <c r="C23" s="35">
         <v>-67839</v>
       </c>
-      <c r="D25" s="26">
+      <c r="D23" s="36">
         <v>22387</v>
       </c>
-      <c r="E25" s="27">
+      <c r="E23" s="37">
         <v>205091</v>
       </c>
-      <c r="F25" s="25">
+      <c r="F23" s="35">
         <v>135567</v>
       </c>
-      <c r="G25" s="28">
+      <c r="G23" s="38">
         <v>69524</v>
       </c>
-      <c r="H25" s="29">
+      <c r="H23" s="39">
         <v>250543</v>
       </c>
-      <c r="I25" s="25">
+      <c r="I23" s="35">
         <v>203406</v>
       </c>
-      <c r="J25" s="26">
+      <c r="J23" s="36">
         <v>47137</v>
       </c>
     </row>
-    <row r="26" spans="1:233" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="24" t="s">
-        <v>15</v>
+    <row r="24" spans="1:233" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="34" t="s">
+        <v>14</v>
       </c>
-      <c r="B26" s="25">
+      <c r="B24" s="35">
         <v>-41639</v>
       </c>
-      <c r="C26" s="25">
+      <c r="C24" s="35">
         <v>-63702</v>
       </c>
-      <c r="D26" s="26">
+      <c r="D24" s="36">
         <v>22063</v>
       </c>
-      <c r="E26" s="27">
+      <c r="E24" s="37">
         <v>204819</v>
       </c>
-      <c r="F26" s="25">
+      <c r="F24" s="35">
         <v>135701</v>
       </c>
-      <c r="G26" s="28">
+      <c r="G24" s="38">
         <v>69118</v>
       </c>
-      <c r="H26" s="29">
+      <c r="H24" s="39">
         <v>246458</v>
       </c>
-      <c r="I26" s="25">
+      <c r="I24" s="35">
         <v>199403</v>
       </c>
-      <c r="J26" s="26">
+      <c r="J24" s="36">
         <v>47055</v>
       </c>
     </row>
-    <row r="27" spans="1:233" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="24" t="s">
-        <v>16</v>
+    <row r="25" spans="1:233" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="34" t="s">
+        <v>15</v>
       </c>
-      <c r="B27" s="25">
+      <c r="B25" s="35">
         <v>-47157</v>
       </c>
-      <c r="C27" s="25">
+      <c r="C25" s="35">
         <v>-68718</v>
       </c>
-      <c r="D27" s="26">
+      <c r="D25" s="36">
         <v>21561</v>
       </c>
-      <c r="E27" s="27">
+      <c r="E25" s="37">
         <v>187490</v>
       </c>
-      <c r="F27" s="25">
+      <c r="F25" s="35">
         <v>126875</v>
       </c>
-      <c r="G27" s="28">
+      <c r="G25" s="38">
         <v>60615</v>
       </c>
-      <c r="H27" s="29">
+      <c r="H25" s="39">
         <v>234647</v>
       </c>
-      <c r="I27" s="25">
+      <c r="I25" s="35">
         <v>195594</v>
       </c>
-      <c r="J27" s="26">
+      <c r="J25" s="36">
         <v>39053</v>
       </c>
     </row>
-    <row r="28" spans="1:233" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="24" t="s">
-        <v>17</v>
+    <row r="26" spans="1:233" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="34" t="s">
+        <v>16</v>
       </c>
-      <c r="B28" s="25">
+      <c r="B26" s="35">
         <v>-52959</v>
       </c>
-      <c r="C28" s="25">
+      <c r="C26" s="35">
         <v>-74616</v>
       </c>
-      <c r="D28" s="26">
+      <c r="D26" s="36">
         <v>21657</v>
       </c>
-      <c r="E28" s="27">
+      <c r="E26" s="37">
         <v>150074</v>
       </c>
-      <c r="F28" s="25">
+      <c r="F26" s="35">
         <v>95025</v>
       </c>
-      <c r="G28" s="28">
+      <c r="G26" s="38">
         <v>55049</v>
       </c>
-      <c r="H28" s="29">
+      <c r="H26" s="39">
         <v>203033</v>
       </c>
-      <c r="I28" s="25">
+      <c r="I26" s="35">
         <v>169641</v>
       </c>
-      <c r="J28" s="26">
+      <c r="J26" s="36">
         <v>33392</v>
       </c>
     </row>
-    <row r="29" spans="1:233" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="24" t="s">
-        <v>18</v>
+    <row r="27" spans="1:233" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="34" t="s">
+        <v>17</v>
       </c>
-      <c r="B29" s="25">
+      <c r="B27" s="35">
         <v>-54915</v>
       </c>
-      <c r="C29" s="25">
+      <c r="C27" s="35">
         <v>-76652</v>
       </c>
-      <c r="D29" s="26">
+      <c r="D27" s="36">
         <v>21736</v>
       </c>
-      <c r="E29" s="27">
+      <c r="E27" s="37">
         <v>146108</v>
       </c>
-      <c r="F29" s="25">
+      <c r="F27" s="35">
         <v>91051</v>
       </c>
-      <c r="G29" s="28">
+      <c r="G27" s="38">
         <v>55056</v>
       </c>
-      <c r="H29" s="29">
+      <c r="H27" s="39">
         <v>201023</v>
       </c>
-      <c r="I29" s="25">
+      <c r="I27" s="35">
         <v>167703</v>
       </c>
-      <c r="J29" s="26">
+      <c r="J27" s="36">
         <v>33320</v>
       </c>
     </row>
-    <row r="30" spans="1:233" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="24" t="s">
-        <v>19</v>
+    <row r="28" spans="1:233" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="34" t="s">
+        <v>18</v>
       </c>
-      <c r="B30" s="25">
+      <c r="B28" s="35">
         <v>-50675</v>
       </c>
-      <c r="C30" s="25">
+      <c r="C28" s="35">
         <v>-72004</v>
       </c>
-      <c r="D30" s="26">
+      <c r="D28" s="36">
         <v>21329</v>
       </c>
-      <c r="E30" s="27">
+      <c r="E28" s="37">
         <v>158805</v>
       </c>
-      <c r="F30" s="25">
+      <c r="F28" s="35">
         <v>103702</v>
       </c>
-      <c r="G30" s="28">
+      <c r="G28" s="38">
         <v>55103</v>
       </c>
-      <c r="H30" s="29">
+      <c r="H28" s="39">
         <v>209480</v>
       </c>
-      <c r="I30" s="25">
+      <c r="I28" s="35">
         <v>175706</v>
       </c>
-      <c r="J30" s="26">
+      <c r="J28" s="36">
         <v>33774</v>
       </c>
     </row>
-    <row r="31" spans="1:233" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="24" t="s">
-        <v>20</v>
+    <row r="29" spans="1:233" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="34" t="s">
+        <v>19</v>
       </c>
-      <c r="B31" s="25">
+      <c r="B29" s="35">
         <v>-60743</v>
       </c>
-      <c r="C31" s="25">
+      <c r="C29" s="35">
         <v>-80792</v>
       </c>
-      <c r="D31" s="26">
+      <c r="D29" s="36">
         <v>20049</v>
       </c>
-      <c r="E31" s="27">
+      <c r="E29" s="37">
         <v>170908</v>
       </c>
-      <c r="F31" s="25">
+      <c r="F29" s="35">
         <v>115880</v>
       </c>
-      <c r="G31" s="28">
+      <c r="G29" s="38">
         <v>55028</v>
       </c>
-      <c r="H31" s="29">
+      <c r="H29" s="39">
         <v>231651</v>
       </c>
-      <c r="I31" s="25">
+      <c r="I29" s="35">
         <v>196672</v>
       </c>
-      <c r="J31" s="26">
+      <c r="J29" s="36">
         <v>34979</v>
       </c>
     </row>
-    <row r="32" spans="1:233" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="24" t="s">
-        <v>21</v>
+    <row r="30" spans="1:233" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="34" t="s">
+        <v>20</v>
       </c>
-      <c r="B32" s="25">
+      <c r="B30" s="35">
         <v>-63733</v>
       </c>
-      <c r="C32" s="25">
+      <c r="C30" s="35">
         <v>-82966</v>
       </c>
-      <c r="D32" s="26">
+      <c r="D30" s="36">
         <v>19233</v>
       </c>
-      <c r="E32" s="27">
+      <c r="E30" s="37">
         <v>174287</v>
       </c>
-      <c r="F32" s="25">
+      <c r="F30" s="35">
         <v>118981</v>
       </c>
-      <c r="G32" s="28">
+      <c r="G30" s="38">
         <v>55306</v>
       </c>
-      <c r="H32" s="29">
+      <c r="H30" s="39">
         <v>238020</v>
       </c>
-      <c r="I32" s="25">
+      <c r="I30" s="35">
         <v>201947</v>
       </c>
-      <c r="J32" s="26">
+      <c r="J30" s="36">
         <v>36073</v>
       </c>
     </row>
-    <row r="33" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="24" t="s">
-        <v>22</v>
+    <row r="31" spans="1:233" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="34" t="s">
+        <v>21</v>
       </c>
-      <c r="B33" s="25">
+      <c r="B31" s="35">
         <v>-62625</v>
       </c>
-      <c r="C33" s="25">
+      <c r="C31" s="35">
         <v>-81613</v>
       </c>
-      <c r="D33" s="26">
+      <c r="D31" s="36">
         <v>18987</v>
       </c>
-      <c r="E33" s="27">
+      <c r="E31" s="37">
         <v>178063</v>
       </c>
-      <c r="F33" s="25">
+      <c r="F31" s="35">
         <v>121965</v>
       </c>
-      <c r="G33" s="28">
+      <c r="G31" s="38">
         <v>56099</v>
       </c>
-      <c r="H33" s="29">
+      <c r="H31" s="39">
         <v>240689</v>
       </c>
-      <c r="I33" s="25">
+      <c r="I31" s="35">
         <v>203577</v>
       </c>
-      <c r="J33" s="26">
+      <c r="J31" s="36">
         <v>37111</v>
       </c>
     </row>
-    <row r="34" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="24" t="s">
-        <v>23</v>
+    <row r="32" spans="1:233" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="34" t="s">
+        <v>22</v>
       </c>
-      <c r="B34" s="25">
+      <c r="B32" s="35">
         <v>-63678</v>
       </c>
-      <c r="C34" s="25">
+      <c r="C32" s="35">
         <v>-82127</v>
       </c>
-      <c r="D34" s="26">
+      <c r="D32" s="36">
         <v>18450</v>
       </c>
-      <c r="E34" s="27">
+      <c r="E32" s="37">
         <v>182732</v>
       </c>
-      <c r="F34" s="25">
+      <c r="F32" s="35">
         <v>125761</v>
       </c>
-      <c r="G34" s="28">
+      <c r="G32" s="38">
         <v>56971</v>
       </c>
-      <c r="H34" s="29">
+      <c r="H32" s="39">
         <v>246410</v>
       </c>
-      <c r="I34" s="25">
+      <c r="I32" s="35">
         <v>207888</v>
       </c>
-      <c r="J34" s="26">
+      <c r="J32" s="36">
         <v>38522</v>
       </c>
     </row>
-    <row r="35" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="24" t="s">
-        <v>24</v>
+    <row r="33" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="34" t="s">
+        <v>23</v>
       </c>
-      <c r="B35" s="25">
+      <c r="B33" s="35">
         <v>-67307</v>
       </c>
-      <c r="C35" s="25">
+      <c r="C33" s="35">
         <v>-86227</v>
       </c>
-      <c r="D35" s="26">
+      <c r="D33" s="36">
         <v>18920</v>
       </c>
-      <c r="E35" s="27">
+      <c r="E33" s="37">
         <v>185186</v>
       </c>
-      <c r="F35" s="25">
+      <c r="F33" s="35">
         <v>126789</v>
       </c>
-      <c r="G35" s="28">
+      <c r="G33" s="38">
         <v>58397</v>
       </c>
-      <c r="H35" s="29">
+      <c r="H33" s="39">
         <v>252494</v>
       </c>
-      <c r="I35" s="25">
+      <c r="I33" s="35">
         <v>213017</v>
       </c>
-      <c r="J35" s="26">
+      <c r="J33" s="36">
         <v>39477</v>
       </c>
     </row>
-    <row r="36" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="24" t="s">
-        <v>25</v>
+    <row r="34" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="34" t="s">
+        <v>24</v>
       </c>
-      <c r="B36" s="25">
+      <c r="B34" s="35">
         <v>-65802</v>
       </c>
-      <c r="C36" s="25">
+      <c r="C34" s="35">
         <v>-84770</v>
       </c>
-      <c r="D36" s="26">
+      <c r="D34" s="36">
         <v>18969</v>
       </c>
-      <c r="E36" s="27">
+      <c r="E34" s="37">
         <v>190877</v>
       </c>
-      <c r="F36" s="25">
+      <c r="F34" s="35">
         <v>131500</v>
       </c>
-      <c r="G36" s="28">
+      <c r="G34" s="38">
         <v>59377</v>
       </c>
-      <c r="H36" s="29">
+      <c r="H34" s="39">
         <v>256678</v>
       </c>
-      <c r="I36" s="25">
+      <c r="I34" s="35">
         <v>216270</v>
       </c>
-      <c r="J36" s="26">
+      <c r="J34" s="36">
         <v>40408</v>
       </c>
     </row>
-    <row r="37" spans="1:10" ht="30.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="37" t="s">
+    <row r="35" spans="1:10" ht="30.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="41" t="s">
+        <v>26</v>
+      </c>
+      <c r="B35" s="42"/>
+      <c r="C35" s="42"/>
+      <c r="D35" s="43"/>
+      <c r="E35" s="44"/>
+      <c r="F35" s="42"/>
+      <c r="G35" s="45"/>
+      <c r="H35" s="46"/>
+      <c r="I35" s="42"/>
+      <c r="J35" s="43"/>
+    </row>
+    <row r="36" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="B36" s="29">
+        <v>-859133</v>
+      </c>
+      <c r="C36" s="29">
+        <v>-1090682</v>
+      </c>
+      <c r="D36" s="30">
+        <v>231549</v>
+      </c>
+      <c r="E36" s="31">
+        <v>2528537</v>
+      </c>
+      <c r="F36" s="29">
+        <v>1761967</v>
+      </c>
+      <c r="G36" s="32">
+        <v>766570</v>
+      </c>
+      <c r="H36" s="33">
+        <v>3387670</v>
+      </c>
+      <c r="I36" s="29">
+        <v>2852649</v>
+      </c>
+      <c r="J36" s="30">
+        <v>535021</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="B37" s="38"/>
-      <c r="C37" s="38"/>
-      <c r="D37" s="39"/>
-      <c r="E37" s="40"/>
-      <c r="F37" s="38"/>
-      <c r="G37" s="41"/>
-      <c r="H37" s="42"/>
-      <c r="I37" s="38"/>
-      <c r="J37" s="39"/>
-    </row>
-    <row r="38" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="30" t="s">
-        <v>13</v>
+      <c r="B37" s="35">
+        <v>-65075</v>
       </c>
-      <c r="B38" s="31">
-        <v>-638574</v>
+      <c r="C37" s="35">
+        <v>-85959</v>
       </c>
-      <c r="C38" s="31">
-        <v>-813771</v>
-      </c>
-      <c r="D38" s="32">
-        <v>175197</v>
-      </c>
-      <c r="E38" s="33">
-        <v>1849735</v>
-      </c>
-      <c r="F38" s="31">
-        <v>1286002</v>
-      </c>
-      <c r="G38" s="34">
-        <v>563733</v>
-      </c>
-      <c r="H38" s="35">
-        <v>2488309</v>
-      </c>
-      <c r="I38" s="31">
-        <v>2099773</v>
-      </c>
-      <c r="J38" s="32">
-        <v>388536</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="B39" s="25">
-        <v>-65696</v>
-      </c>
-      <c r="C39" s="25">
-        <v>-86580</v>
-      </c>
-      <c r="D39" s="26">
+      <c r="D37" s="36">
         <v>20884</v>
       </c>
-      <c r="E39" s="27">
-        <v>194405</v>
+      <c r="E37" s="37">
+        <v>194598</v>
       </c>
-      <c r="F39" s="25">
-        <v>134402</v>
+      <c r="F37" s="35">
+        <v>134595</v>
       </c>
-      <c r="G39" s="28">
+      <c r="G37" s="38">
         <v>60003</v>
       </c>
-      <c r="H39" s="29">
-        <v>260101</v>
+      <c r="H37" s="39">
+        <v>259673</v>
       </c>
-      <c r="I39" s="25">
-        <v>220982</v>
+      <c r="I37" s="35">
+        <v>220554</v>
       </c>
-      <c r="J39" s="26">
+      <c r="J37" s="36">
         <v>39119</v>
       </c>
     </row>
-    <row r="40" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="24" t="s">
-        <v>15</v>
+    <row r="38" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="34" t="s">
+        <v>28</v>
       </c>
-      <c r="B40" s="25">
-        <v>-68180</v>
+      <c r="B38" s="35">
+        <v>-67559</v>
       </c>
-      <c r="C40" s="25">
-        <v>-89298</v>
+      <c r="C38" s="35">
+        <v>-88677</v>
       </c>
-      <c r="D40" s="26">
+      <c r="D38" s="36">
         <v>21118</v>
       </c>
-      <c r="E40" s="27">
-        <v>190439</v>
+      <c r="E38" s="37">
+        <v>190633</v>
       </c>
-      <c r="F40" s="25">
-        <v>130338</v>
+      <c r="F38" s="35">
+        <v>130531</v>
       </c>
-      <c r="G40" s="28">
+      <c r="G38" s="38">
         <v>60102</v>
       </c>
-      <c r="H40" s="29">
-        <v>258619</v>
+      <c r="H38" s="39">
+        <v>258191</v>
       </c>
-      <c r="I40" s="25">
-        <v>219635</v>
+      <c r="I38" s="35">
+        <v>219208</v>
       </c>
-      <c r="J40" s="26">
+      <c r="J38" s="36">
         <v>38984</v>
       </c>
     </row>
-    <row r="41" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="24" t="s">
-        <v>16</v>
+    <row r="39" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="34" t="s">
+        <v>29</v>
       </c>
-      <c r="B41" s="25">
-        <v>-72222</v>
+      <c r="B39" s="35">
+        <v>-71601</v>
       </c>
-      <c r="C41" s="25">
-        <v>-93011</v>
+      <c r="C39" s="35">
+        <v>-92390</v>
       </c>
-      <c r="D41" s="26">
+      <c r="D39" s="36">
         <v>20789</v>
       </c>
-      <c r="E41" s="27">
-        <v>204960</v>
+      <c r="E39" s="37">
+        <v>205153</v>
       </c>
-      <c r="F41" s="25">
-        <v>143604</v>
+      <c r="F39" s="35">
+        <v>143797</v>
       </c>
-      <c r="G41" s="28">
+      <c r="G39" s="38">
         <v>61356</v>
       </c>
-      <c r="H41" s="29">
-        <v>277182</v>
+      <c r="H39" s="39">
+        <v>276754</v>
       </c>
-      <c r="I41" s="25">
-        <v>236615</v>
+      <c r="I39" s="35">
+        <v>236187</v>
       </c>
-      <c r="J41" s="26">
+      <c r="J39" s="36">
         <v>40567</v>
       </c>
     </row>
-    <row r="42" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="24" t="s">
-        <v>17</v>
+    <row r="40" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="39" t="s">
+        <v>30</v>
       </c>
-      <c r="B42" s="25">
-        <v>-66659</v>
+      <c r="B40" s="35">
+        <v>-65530</v>
       </c>
-      <c r="C42" s="25">
-        <v>-87092</v>
+      <c r="C40" s="35">
+        <v>-86420</v>
       </c>
-      <c r="D42" s="26">
-        <v>20433</v>
+      <c r="D40" s="36">
+        <v>20890</v>
       </c>
-      <c r="E42" s="27">
-        <v>206847</v>
+      <c r="E40" s="37">
+        <v>207766</v>
       </c>
-      <c r="F42" s="25">
-        <v>145050</v>
+      <c r="F40" s="35">
+        <v>145309</v>
       </c>
-      <c r="G42" s="28">
-        <v>61797</v>
+      <c r="G40" s="38">
+        <v>62457</v>
       </c>
-      <c r="H42" s="29">
-        <v>273506</v>
+      <c r="H40" s="39">
+        <v>273296</v>
       </c>
-      <c r="I42" s="25">
-        <v>232142</v>
+      <c r="I40" s="35">
+        <v>231729</v>
       </c>
-      <c r="J42" s="26">
-        <v>41364</v>
+      <c r="J40" s="36">
+        <v>41567</v>
       </c>
     </row>
-    <row r="43" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="24" t="s">
-        <v>18</v>
+    <row r="41" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="39" t="s">
+        <v>31</v>
       </c>
-      <c r="B43" s="25">
-        <v>-68538</v>
+      <c r="B41" s="35">
+        <v>-67354</v>
       </c>
-      <c r="C43" s="25">
-        <v>-89319</v>
+      <c r="C41" s="35">
+        <v>-88688</v>
       </c>
-      <c r="D43" s="26">
-        <v>20780</v>
+      <c r="D41" s="36">
+        <v>21333</v>
       </c>
-      <c r="E43" s="27">
-        <v>208742</v>
+      <c r="E41" s="37">
+        <v>209742</v>
       </c>
-      <c r="F43" s="25">
-        <v>145640</v>
+      <c r="F41" s="35">
+        <v>145873</v>
       </c>
-      <c r="G43" s="28">
-        <v>63102</v>
+      <c r="G41" s="38">
+        <v>63869</v>
       </c>
-      <c r="H43" s="29">
-        <v>277281</v>
+      <c r="H41" s="39">
+        <v>277096</v>
       </c>
-      <c r="I43" s="25">
-        <v>234959</v>
+      <c r="I41" s="35">
+        <v>234560</v>
       </c>
-      <c r="J43" s="26">
-        <v>42322</v>
+      <c r="J41" s="36">
+        <v>42536</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="39" t="s">
+        <v>32</v>
+      </c>
+      <c r="B42" s="35">
+        <v>-72314</v>
+      </c>
+      <c r="C42" s="35">
+        <v>-92643</v>
+      </c>
+      <c r="D42" s="36">
+        <v>20329</v>
+      </c>
+      <c r="E42" s="37">
+        <v>210718</v>
+      </c>
+      <c r="F42" s="35">
+        <v>146164</v>
+      </c>
+      <c r="G42" s="38">
+        <v>64553</v>
+      </c>
+      <c r="H42" s="39">
+        <v>283032</v>
+      </c>
+      <c r="I42" s="35">
+        <v>238808</v>
+      </c>
+      <c r="J42" s="36">
+        <v>44224</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="39" t="s">
+        <v>33</v>
+      </c>
+      <c r="B43" s="35">
+        <v>-69712</v>
+      </c>
+      <c r="C43" s="35">
+        <v>-87061</v>
+      </c>
+      <c r="D43" s="36">
+        <v>17348</v>
+      </c>
+      <c r="E43" s="37">
+        <v>212616</v>
+      </c>
+      <c r="F43" s="35">
+        <v>148958</v>
+      </c>
+      <c r="G43" s="38">
+        <v>63657</v>
+      </c>
+      <c r="H43" s="39">
+        <v>282328</v>
+      </c>
+      <c r="I43" s="35">
+        <v>236019</v>
+      </c>
+      <c r="J43" s="36">
+        <v>46309</v>
       </c>
     </row>
     <row r="44" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="24" t="s">
-        <v>19</v>
+      <c r="A44" s="39" t="s">
+        <v>34</v>
       </c>
-      <c r="B44" s="25">
-        <v>-73230</v>
+      <c r="B44" s="35">
+        <v>-72574</v>
       </c>
-      <c r="C44" s="25">
-        <v>-93258</v>
+      <c r="C44" s="35">
+        <v>-88541</v>
       </c>
-      <c r="D44" s="26">
-        <v>20028</v>
+      <c r="D44" s="36">
+        <v>15967</v>
       </c>
-      <c r="E44" s="27">
-        <v>210078</v>
+      <c r="E44" s="37">
+        <v>213397</v>
       </c>
-      <c r="F44" s="25">
-        <v>145918</v>
+      <c r="F44" s="35">
+        <v>150115</v>
       </c>
-      <c r="G44" s="28">
-        <v>64160</v>
+      <c r="G44" s="38">
+        <v>63282</v>
       </c>
-      <c r="H44" s="29">
-        <v>283308</v>
+      <c r="H44" s="39">
+        <v>285971</v>
       </c>
-      <c r="I44" s="25">
-        <v>239176</v>
+      <c r="I44" s="35">
+        <v>238656</v>
       </c>
-      <c r="J44" s="26">
-        <v>44132</v>
+      <c r="J44" s="36">
+        <v>47316</v>
       </c>
     </row>
-    <row r="45" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="24" t="s">
-        <v>20</v>
+    <row r="45" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="39" t="s">
+        <v>35</v>
       </c>
-      <c r="B45" s="25">
-        <v>-70303</v>
+      <c r="B45" s="35">
+        <v>-80814</v>
       </c>
-      <c r="C45" s="25">
-        <v>-87819</v>
+      <c r="C45" s="35">
+        <v>-97362</v>
       </c>
-      <c r="D45" s="26">
-        <v>17517</v>
+      <c r="D45" s="36">
+        <v>16548</v>
       </c>
-      <c r="E45" s="27">
-        <v>212702</v>
+      <c r="E45" s="37">
+        <v>206989</v>
       </c>
-      <c r="F45" s="25">
-        <v>148586</v>
+      <c r="F45" s="35">
+        <v>143100</v>
       </c>
-      <c r="G45" s="28">
-        <v>64116</v>
+      <c r="G45" s="38">
+        <v>63889</v>
       </c>
-      <c r="H45" s="29">
-        <v>283005</v>
+      <c r="H45" s="39">
+        <v>287804</v>
       </c>
-      <c r="I45" s="25">
-        <v>236405</v>
+      <c r="I45" s="35">
+        <v>240462</v>
       </c>
-      <c r="J45" s="26">
-        <v>46599</v>
+      <c r="J45" s="36">
+        <v>47341</v>
       </c>
     </row>
     <row r="46" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="24" t="s">
-        <v>28</v>
+      <c r="A46" s="34" t="s">
+        <v>36</v>
       </c>
-      <c r="B46" s="25">
-        <v>-72813</v>
+      <c r="B46" s="35">
+        <v>-66537</v>
       </c>
-      <c r="C46" s="25">
-        <v>-89239</v>
+      <c r="C46" s="35">
+        <v>-83238</v>
       </c>
-      <c r="D46" s="26">
-        <v>16426</v>
+      <c r="D46" s="36">
+        <v>16701</v>
       </c>
-      <c r="E46" s="27">
-        <v>214004</v>
+      <c r="E46" s="37">
+        <v>224050</v>
       </c>
-      <c r="F46" s="25">
-        <v>149760</v>
+      <c r="F46" s="35">
+        <v>159008</v>
       </c>
-      <c r="G46" s="28">
-        <v>64244</v>
+      <c r="G46" s="38">
+        <v>65042</v>
       </c>
-      <c r="H46" s="29">
-        <v>286816</v>
+      <c r="H46" s="39">
+        <v>290586</v>
       </c>
-      <c r="I46" s="25">
-        <v>238998</v>
+      <c r="I46" s="35">
+        <v>242246</v>
       </c>
-      <c r="J46" s="26">
-        <v>47818</v>
+      <c r="J46" s="36">
+        <v>48340</v>
       </c>
     </row>
     <row r="47" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="24" t="s">
-        <v>22</v>
+      <c r="A47" s="34" t="s">
+        <v>37</v>
       </c>
-      <c r="B47" s="25">
-        <v>-80934</v>
+      <c r="B47" s="35">
+        <v>-79331</v>
       </c>
-      <c r="C47" s="25">
-        <v>-98156</v>
+      <c r="C47" s="35">
+        <v>-98272</v>
       </c>
-      <c r="D47" s="26">
-        <v>17222</v>
+      <c r="D47" s="36">
+        <v>18941</v>
       </c>
-      <c r="E47" s="27">
-        <v>207558</v>
+      <c r="E47" s="37">
+        <v>224734</v>
       </c>
-      <c r="F47" s="25">
-        <v>142705</v>
+      <c r="F47" s="35">
+        <v>156250</v>
       </c>
-      <c r="G47" s="28">
-        <v>64853</v>
+      <c r="G47" s="38">
+        <v>68483</v>
       </c>
-      <c r="H47" s="29">
-        <v>288492</v>
+      <c r="H47" s="39">
+        <v>304065</v>
       </c>
-      <c r="I47" s="25">
-        <v>240861</v>
+      <c r="I47" s="35">
+        <v>254522</v>
       </c>
-      <c r="J47" s="26">
-        <v>47631</v>
+      <c r="J47" s="36">
+        <v>49543</v>
       </c>
     </row>
     <row r="48" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="24" t="s">
-        <v>23</v>
+      <c r="A48" s="28" t="s">
+        <v>24</v>
       </c>
-      <c r="B48" s="25" t="s">
-        <v>29</v>
+      <c r="B48" s="29">
+        <v>-80731</v>
       </c>
-      <c r="C48" s="25" t="s">
-        <v>29</v>
+      <c r="C48" s="29">
+        <v>-101431</v>
       </c>
-      <c r="D48" s="26" t="s">
-        <v>29</v>
+      <c r="D48" s="30">
+        <v>20700</v>
       </c>
-      <c r="E48" s="27" t="s">
-        <v>29</v>
+      <c r="E48" s="31">
+        <v>228143</v>
       </c>
-      <c r="F48" s="25" t="s">
-        <v>29</v>
+      <c r="F48" s="29">
+        <v>158268</v>
       </c>
-      <c r="G48" s="28" t="s">
-        <v>29</v>
+      <c r="G48" s="32">
+        <v>69875</v>
       </c>
-      <c r="H48" s="29" t="s">
-        <v>29</v>
+      <c r="H48" s="33">
+        <v>308874</v>
       </c>
-      <c r="I48" s="25" t="s">
-        <v>29</v>
+      <c r="I48" s="29">
+        <v>259699</v>
       </c>
-      <c r="J48" s="26" t="s">
-        <v>29</v>
+      <c r="J48" s="30">
+        <v>49175</v>
       </c>
     </row>
-    <row r="49" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="24" t="s">
-        <v>24</v>
+    <row r="49" spans="1:10" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="47" t="s">
+        <v>38</v>
       </c>
-      <c r="B49" s="25" t="s">
-        <v>29</v>
+      <c r="B49" s="48"/>
+      <c r="C49" s="48"/>
+      <c r="D49" s="48"/>
+      <c r="E49" s="48"/>
+      <c r="F49" s="48"/>
+      <c r="G49" s="48"/>
+      <c r="H49" s="48"/>
+      <c r="I49" s="49"/>
+      <c r="J49" s="49"/>
+    </row>
+    <row r="50" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="50"/>
+      <c r="B50" s="49">
+        <v>-80172</v>
       </c>
-      <c r="C49" s="25" t="s">
-        <v>29</v>
+      <c r="C50" s="49">
+        <v>-98991</v>
       </c>
-      <c r="D49" s="26" t="s">
-        <v>29</v>
+      <c r="D50" s="49">
+        <v>18818</v>
       </c>
-      <c r="E49" s="27" t="s">
-        <v>29</v>
+      <c r="E50" s="49">
+        <v>224215</v>
       </c>
-      <c r="F49" s="25" t="s">
-        <v>29</v>
+      <c r="F50" s="49">
+        <v>155942</v>
       </c>
-      <c r="G49" s="28" t="s">
-        <v>29</v>
+      <c r="G50" s="49">
+        <v>68273</v>
       </c>
-      <c r="H49" s="29" t="s">
-        <v>29</v>
+      <c r="H50" s="49">
+        <v>304388</v>
       </c>
-      <c r="I49" s="25" t="s">
-        <v>29</v>
+      <c r="I50" s="49">
+        <v>254933</v>
       </c>
-      <c r="J49" s="26" t="s">
-        <v>29</v>
+      <c r="J50" s="49">
+        <v>49455</v>
       </c>
     </row>
-    <row r="50" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="24" t="s">
-        <v>25</v>
+    <row r="51" spans="1:10" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="47" t="s">
+        <v>39</v>
       </c>
-      <c r="B50" s="25" t="s">
-        <v>29</v>
+      <c r="B51" s="11"/>
+      <c r="C51" s="11"/>
+      <c r="D51" s="11"/>
+      <c r="E51" s="11"/>
+      <c r="F51" s="11"/>
+      <c r="G51" s="11"/>
+      <c r="H51" s="11"/>
+      <c r="I51" s="47"/>
+      <c r="J51" s="47"/>
+    </row>
+    <row r="52" spans="1:10" s="51" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="47" t="s">
+        <v>40</v>
       </c>
-      <c r="C50" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="D50" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="E50" s="33" t="s">
-        <v>29</v>
-      </c>
-      <c r="F50" s="31" t="s">
-        <v>29</v>
-      </c>
-      <c r="G50" s="34" t="s">
-        <v>29</v>
-      </c>
-      <c r="H50" s="29" t="s">
-        <v>29</v>
-      </c>
-      <c r="I50" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="J50" s="26" t="s">
-        <v>29</v>
+      <c r="B52" s="47"/>
+      <c r="C52" s="47"/>
+      <c r="D52" s="47"/>
+      <c r="E52" s="47"/>
+      <c r="F52" s="47"/>
+      <c r="G52" s="47"/>
+      <c r="H52" s="47"/>
+      <c r="I52" s="47"/>
+      <c r="J52" s="47"/>
+    </row>
+    <row r="53" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="2" t="s">
+        <v>41</v>
       </c>
     </row>
-    <row r="51" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="43" t="s">
-        <v>30</v>
-      </c>
-      <c r="B51" s="44"/>
-      <c r="C51" s="44"/>
-      <c r="D51" s="44"/>
-      <c r="E51" s="44"/>
-      <c r="F51" s="44"/>
-      <c r="G51" s="44"/>
-      <c r="H51" s="44"/>
-      <c r="I51" s="45"/>
-      <c r="J51" s="45"/>
-    </row>
-    <row r="52" spans="1:10" s="48" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="46"/>
-      <c r="B52" s="47">
-        <v>-73252</v>
-      </c>
-      <c r="C52" s="47">
-        <v>-89414</v>
-      </c>
-      <c r="D52" s="47">
-        <v>16162</v>
-      </c>
-      <c r="E52" s="47">
-        <v>213740</v>
-      </c>
-      <c r="F52" s="47">
-        <v>149691</v>
-      </c>
-      <c r="G52" s="47">
-        <v>64049</v>
-      </c>
-      <c r="H52" s="47">
-        <v>286991</v>
-      </c>
-      <c r="I52" s="47">
-        <v>239105</v>
-      </c>
-      <c r="J52" s="47">
-        <v>47886</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10" s="48" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="46" t="s">
-        <v>31</v>
-      </c>
-      <c r="B53" s="11"/>
-      <c r="C53" s="11"/>
-      <c r="D53" s="11"/>
-      <c r="E53" s="11"/>
-      <c r="F53" s="11"/>
-      <c r="G53" s="11"/>
-      <c r="H53" s="11"/>
-      <c r="I53" s="46"/>
-      <c r="J53" s="46"/>
-    </row>
-    <row r="54" spans="1:10" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="46" t="s">
-        <v>32</v>
-      </c>
-      <c r="B54" s="46"/>
-      <c r="C54" s="46"/>
-      <c r="D54" s="46"/>
-      <c r="E54" s="46"/>
-      <c r="F54" s="46"/>
-      <c r="G54" s="46"/>
-      <c r="H54" s="46"/>
-      <c r="I54" s="46"/>
-      <c r="J54" s="46"/>
-    </row>
-    <row r="55" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A62" s="51"/>
-    </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A63" s="51"/>
-    </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="1">
     <mergeCell ref="A5:A6"/>
-    <mergeCell ref="A62:A63"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.7" right="0.7" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
-  <pageSetup scale="63" orientation="portrait" useFirstPageNumber="1" r:id="rId1"/>
+  <pageSetup scale="69" orientation="portrait" useFirstPageNumber="1" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;C- &amp;P -</oddHeader>
   </headerFooter>

--- a/Data/exh1.xlsx
+++ b/Data/exh1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10313"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://clemson-my.sharepoint.com/personal/meschef_clemson_edu/Documents/Econ_Trends/Econ-Trends/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{93ED5E9E-4959-A547-B055-C7D9B23A1DCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F8752D2C-489C-4240-AD8D-58373BB0D074}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="33300" windowHeight="18540" xr2:uid="{36B61F2D-FA53-442A-A6BC-3B3DDC62AE0E}"/>
+    <workbookView xWindow="5160" yWindow="500" windowWidth="25520" windowHeight="19840" xr2:uid="{DD7BCF49-3FC6-4068-842E-E2C95AC9D05B}"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
     <definedName name="gsfimpcountries">'[1]SF Goods Imports'!$A$4:$S$4</definedName>
     <definedName name="gsfimpquarters">'[1]SF Goods Imports'!$A$4:$A$500</definedName>
     <definedName name="PRINT">#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'1'!$A$1:$J$53</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'1'!$A$1:$J$55</definedName>
     <definedName name="qlookup">[1]Codes!$A$22:$B$25</definedName>
     <definedName name="snsaexp">'[1]NSA Services Exports'!$A$4:$S$500</definedName>
     <definedName name="snsaexpcountries">'[1]NSA Services Exports'!$A$4:$S$4</definedName>
@@ -91,7 +91,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="34">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -102,7 +102,7 @@
     <t>Exhibit 1. U.S. International Trade in Goods and Services</t>
   </si>
   <si>
-    <t>In millions of dollars. Details may not equal totals due to seasonal adjustment and rounding.  (R) - Revised.</t>
+    <t>In millions of dollars. Details may not equal totals due to seasonal adjustment and rounding. (R) - Revised.</t>
   </si>
   <si>
     <t>Period</t>
@@ -126,10 +126,13 @@
     <t>Services</t>
   </si>
   <si>
-    <t>2019</t>
+    <t>2020</t>
   </si>
   <si>
-    <t>Jan.- Dec.</t>
+    <t>Jan. - Dec.</t>
+  </si>
+  <si>
+    <t>Jan. - Feb.</t>
   </si>
   <si>
     <t>January</t>
@@ -168,46 +171,19 @@
     <t>December</t>
   </si>
   <si>
-    <t>2020</t>
-  </si>
-  <si>
     <t>2021</t>
   </si>
   <si>
-    <t xml:space="preserve">January (R) </t>
+    <t>2022</t>
   </si>
   <si>
-    <t xml:space="preserve">February (R) </t>
+    <t>January (R)</t>
   </si>
   <si>
-    <t xml:space="preserve">March (R) </t>
+    <t/>
   </si>
   <si>
-    <t xml:space="preserve">April (R) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">May (R) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">June (R) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">July (R) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">August (R) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">September (R) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">October (R) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">November (R) </t>
-  </si>
-  <si>
-    <t>November data as published last month:</t>
+    <t>January data as published last month:</t>
   </si>
   <si>
     <t>(1) Data are presented on a balance of payments (BOP) basis.</t>
@@ -223,7 +199,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <name val="Arial"/>
@@ -248,11 +224,6 @@
     </font>
     <font>
       <b/>
-      <sz val="16"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="16"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -289,7 +260,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="30">
+  <borders count="27">
     <border>
       <left/>
       <right/>
@@ -299,14 +270,14 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="8"/>
+        <color indexed="64"/>
       </left>
       <right/>
       <top style="thin">
-        <color indexed="8"/>
+        <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color indexed="8"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -314,23 +285,23 @@
       <left/>
       <right/>
       <top style="thin">
-        <color indexed="8"/>
+        <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color indexed="8"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="64"/>
       </right>
       <top style="thin">
-        <color indexed="8"/>
+        <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color indexed="8"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -366,7 +337,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="double">
+        <color indexed="64"/>
+      </right>
       <top style="double">
         <color indexed="64"/>
       </top>
@@ -379,34 +352,6 @@
       <left style="double">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="double">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="double">
-        <color indexed="64"/>
-      </right>
-      <top style="double">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -450,7 +395,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="double">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -463,34 +410,6 @@
       <left style="double">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="double">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="double">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="double">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -547,6 +466,57 @@
       <top style="double">
         <color indexed="64"/>
       </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="double">
+        <color indexed="64"/>
+      </right>
+      <top/>
       <bottom/>
       <diagonal/>
     </border>
@@ -613,52 +583,10 @@
     </border>
     <border>
       <left/>
-      <right style="thin">
+      <right/>
+      <top style="thin">
         <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="double">
-        <color indexed="64"/>
-      </right>
-      <top/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -666,7 +594,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -676,19 +604,19 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
@@ -704,70 +632,62 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous"/>
-    </xf>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -56755,15 +56675,13 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37D9DB04-FA09-4CE1-8B9C-1BE781DF3619}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41613ED9-C95A-44D3-ABF1-CD786A2330CC}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:HY53"/>
+  <dimension ref="A1:HY63"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A53" sqref="A53"/>
-    </sheetView>
+    <sheetView tabSelected="1" showOutlineSymbols="0" topLeftCell="A5" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="70" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.5703125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -57010,7 +56928,7 @@
       <c r="J4" s="11"/>
     </row>
     <row r="5" spans="1:10" ht="25" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="52" t="s">
+      <c r="A5" s="49" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="12" t="s">
@@ -57022,1640 +56940,1711 @@
         <v>6</v>
       </c>
       <c r="F5" s="12"/>
-      <c r="G5" s="15"/>
-      <c r="H5" s="16" t="s">
+      <c r="G5" s="13"/>
+      <c r="H5" s="14" t="s">
         <v>7</v>
       </c>
       <c r="I5" s="12"/>
       <c r="J5" s="12"/>
     </row>
     <row r="6" spans="1:10" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="53"/>
-      <c r="B6" s="17" t="s">
+      <c r="A6" s="50"/>
+      <c r="B6" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="17" t="s">
+      <c r="C6" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="18" t="s">
+      <c r="D6" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="19" t="s">
+      <c r="E6" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="17" t="s">
+      <c r="F6" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="G6" s="20" t="s">
+      <c r="G6" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="H6" s="21" t="s">
+      <c r="H6" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="I6" s="17" t="s">
+      <c r="I6" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="J6" s="17" t="s">
+      <c r="J6" s="15" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="30.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="22" t="s">
+      <c r="A7" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="23"/>
-      <c r="C7" s="23"/>
-      <c r="D7" s="24"/>
-      <c r="E7" s="25"/>
-      <c r="F7" s="23"/>
-      <c r="G7" s="26"/>
-      <c r="H7" s="27"/>
-      <c r="I7" s="23"/>
-      <c r="J7" s="24"/>
+      <c r="B7" s="19"/>
+      <c r="C7" s="19"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="22"/>
+      <c r="H7" s="23"/>
+      <c r="I7" s="19"/>
+      <c r="J7" s="20"/>
     </row>
     <row r="8" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="28" t="s">
+      <c r="A8" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="29">
-        <v>-576341</v>
+      <c r="B8" s="25">
+        <v>-676684</v>
       </c>
-      <c r="C8" s="29">
-        <v>-861515</v>
+      <c r="C8" s="25">
+        <v>-922026</v>
       </c>
-      <c r="D8" s="30">
-        <v>285174</v>
+      <c r="D8" s="26">
+        <v>245342</v>
       </c>
-      <c r="E8" s="31">
-        <v>2528367</v>
+      <c r="E8" s="27">
+        <v>2134441</v>
       </c>
-      <c r="F8" s="29">
-        <v>1652072</v>
+      <c r="F8" s="25">
+        <v>1428798</v>
       </c>
-      <c r="G8" s="32">
-        <v>876295</v>
+      <c r="G8" s="28">
+        <v>705643</v>
       </c>
-      <c r="H8" s="33">
-        <v>3104708</v>
+      <c r="H8" s="29">
+        <v>2811125</v>
       </c>
-      <c r="I8" s="29">
-        <v>2513587</v>
+      <c r="I8" s="25">
+        <v>2350825</v>
       </c>
-      <c r="J8" s="30">
-        <v>591121</v>
+      <c r="J8" s="26">
+        <v>460301</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="34" t="s">
+    <row r="9" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="35">
-        <v>-48818</v>
+      <c r="B9" s="31">
+        <v>-87091</v>
       </c>
-      <c r="C9" s="35">
-        <v>-72422</v>
+      <c r="C9" s="31">
+        <v>-131541</v>
       </c>
-      <c r="D9" s="36">
-        <v>23604</v>
+      <c r="D9" s="32">
+        <v>44450</v>
       </c>
-      <c r="E9" s="37">
-        <v>209087</v>
+      <c r="E9" s="33">
+        <v>409911</v>
       </c>
-      <c r="F9" s="35">
-        <v>137716</v>
+      <c r="F9" s="31">
+        <v>271268</v>
       </c>
-      <c r="G9" s="38">
-        <v>71371</v>
+      <c r="G9" s="34">
+        <v>138643</v>
       </c>
-      <c r="H9" s="39">
-        <v>257905</v>
+      <c r="H9" s="35">
+        <v>497002</v>
       </c>
-      <c r="I9" s="35">
-        <v>210138</v>
+      <c r="I9" s="31">
+        <v>402809</v>
       </c>
-      <c r="J9" s="36">
-        <v>47768</v>
+      <c r="J9" s="32">
+        <v>94192</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="34" t="s">
+    <row r="10" spans="1:10" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="35">
-        <v>-48032</v>
+      <c r="B10" s="25">
+        <v>-45452</v>
       </c>
-      <c r="C10" s="35">
-        <v>-71831</v>
+      <c r="C10" s="25">
+        <v>-67839</v>
       </c>
-      <c r="D10" s="36">
-        <v>23799</v>
+      <c r="D10" s="26">
+        <v>22387</v>
       </c>
-      <c r="E10" s="37">
-        <v>210133</v>
+      <c r="E10" s="27">
+        <v>205091</v>
       </c>
-      <c r="F10" s="35">
-        <v>138255</v>
+      <c r="F10" s="25">
+        <v>135567</v>
       </c>
-      <c r="G10" s="38">
-        <v>71878</v>
+      <c r="G10" s="28">
+        <v>69524</v>
       </c>
-      <c r="H10" s="39">
-        <v>258165</v>
+      <c r="H10" s="29">
+        <v>250543</v>
       </c>
-      <c r="I10" s="35">
-        <v>210086</v>
+      <c r="I10" s="25">
+        <v>203406</v>
       </c>
-      <c r="J10" s="36">
-        <v>48079</v>
+      <c r="J10" s="26">
+        <v>47137</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="34" t="s">
+      <c r="A11" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="35">
-        <v>-49777</v>
+      <c r="B11" s="25">
+        <v>-41639</v>
       </c>
-      <c r="C11" s="35">
-        <v>-73355</v>
+      <c r="C11" s="25">
+        <v>-63702</v>
       </c>
-      <c r="D11" s="36">
-        <v>23578</v>
+      <c r="D11" s="26">
+        <v>22063</v>
       </c>
-      <c r="E11" s="37">
-        <v>213813</v>
+      <c r="E11" s="27">
+        <v>204819</v>
       </c>
-      <c r="F11" s="35">
-        <v>141183</v>
+      <c r="F11" s="25">
+        <v>135701</v>
       </c>
-      <c r="G11" s="38">
-        <v>72630</v>
+      <c r="G11" s="28">
+        <v>69118</v>
       </c>
-      <c r="H11" s="39">
-        <v>263590</v>
+      <c r="H11" s="29">
+        <v>246458</v>
       </c>
-      <c r="I11" s="35">
-        <v>214538</v>
+      <c r="I11" s="25">
+        <v>199403</v>
       </c>
-      <c r="J11" s="36">
-        <v>49052</v>
+      <c r="J11" s="26">
+        <v>47055</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="34" t="s">
+      <c r="A12" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="35">
-        <v>-50074</v>
+      <c r="B12" s="25">
+        <v>-47157</v>
       </c>
-      <c r="C12" s="35">
-        <v>-73654</v>
+      <c r="C12" s="25">
+        <v>-68718</v>
       </c>
-      <c r="D12" s="36">
-        <v>23580</v>
+      <c r="D12" s="26">
+        <v>21561</v>
       </c>
-      <c r="E12" s="37">
-        <v>210289</v>
+      <c r="E12" s="27">
+        <v>187490</v>
       </c>
-      <c r="F12" s="35">
-        <v>137284</v>
+      <c r="F12" s="25">
+        <v>126875</v>
       </c>
-      <c r="G12" s="38">
-        <v>73005</v>
+      <c r="G12" s="28">
+        <v>60615</v>
       </c>
-      <c r="H12" s="39">
-        <v>260363</v>
+      <c r="H12" s="29">
+        <v>234647</v>
       </c>
-      <c r="I12" s="35">
-        <v>210937</v>
+      <c r="I12" s="25">
+        <v>195594</v>
       </c>
-      <c r="J12" s="36">
-        <v>49425</v>
+      <c r="J12" s="26">
+        <v>39053</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="34" t="s">
+      <c r="A13" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="35">
-        <v>-51904</v>
+      <c r="B13" s="25">
+        <v>-52959</v>
       </c>
-      <c r="C13" s="35">
-        <v>-76423</v>
+      <c r="C13" s="25">
+        <v>-74616</v>
       </c>
-      <c r="D13" s="36">
-        <v>24520</v>
+      <c r="D13" s="26">
+        <v>21657</v>
       </c>
-      <c r="E13" s="37">
-        <v>213973</v>
+      <c r="E13" s="27">
+        <v>150074</v>
       </c>
-      <c r="F13" s="35">
-        <v>139993</v>
+      <c r="F13" s="25">
+        <v>95025</v>
       </c>
-      <c r="G13" s="38">
-        <v>73980</v>
+      <c r="G13" s="28">
+        <v>55049</v>
       </c>
-      <c r="H13" s="39">
-        <v>265877</v>
+      <c r="H13" s="29">
+        <v>203033</v>
       </c>
-      <c r="I13" s="35">
-        <v>216416</v>
+      <c r="I13" s="25">
+        <v>169641</v>
       </c>
-      <c r="J13" s="36">
-        <v>49461</v>
+      <c r="J13" s="26">
+        <v>33392</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="34" t="s">
+      <c r="A14" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="B14" s="35">
-        <v>-50390</v>
+      <c r="B14" s="25">
+        <v>-54915</v>
       </c>
-      <c r="C14" s="35">
-        <v>-74285</v>
+      <c r="C14" s="25">
+        <v>-76652</v>
       </c>
-      <c r="D14" s="36">
-        <v>23895</v>
+      <c r="D14" s="26">
+        <v>21736</v>
       </c>
-      <c r="E14" s="37">
-        <v>210575</v>
+      <c r="E14" s="27">
+        <v>146108</v>
       </c>
-      <c r="F14" s="35">
-        <v>136744</v>
+      <c r="F14" s="25">
+        <v>91051</v>
       </c>
-      <c r="G14" s="38">
-        <v>73831</v>
+      <c r="G14" s="28">
+        <v>55056</v>
       </c>
-      <c r="H14" s="39">
-        <v>260965</v>
+      <c r="H14" s="29">
+        <v>201023</v>
       </c>
-      <c r="I14" s="35">
-        <v>211029</v>
+      <c r="I14" s="25">
+        <v>167703</v>
       </c>
-      <c r="J14" s="36">
-        <v>49936</v>
+      <c r="J14" s="26">
+        <v>33320</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="34" t="s">
+    <row r="15" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="B15" s="35">
-        <v>-49959</v>
+      <c r="B15" s="25">
+        <v>-50675</v>
       </c>
-      <c r="C15" s="35">
-        <v>-73237</v>
+      <c r="C15" s="25">
+        <v>-72004</v>
       </c>
-      <c r="D15" s="36">
-        <v>23277</v>
+      <c r="D15" s="26">
+        <v>21329</v>
       </c>
-      <c r="E15" s="37">
-        <v>211469</v>
+      <c r="E15" s="27">
+        <v>158805</v>
       </c>
-      <c r="F15" s="35">
-        <v>138532</v>
+      <c r="F15" s="25">
+        <v>103702</v>
       </c>
-      <c r="G15" s="38">
-        <v>72937</v>
+      <c r="G15" s="28">
+        <v>55103</v>
       </c>
-      <c r="H15" s="39">
-        <v>261428</v>
+      <c r="H15" s="29">
+        <v>209480</v>
       </c>
-      <c r="I15" s="35">
-        <v>211768</v>
+      <c r="I15" s="25">
+        <v>175706</v>
       </c>
-      <c r="J15" s="36">
-        <v>49660</v>
+      <c r="J15" s="26">
+        <v>33774</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="34" t="s">
+    <row r="16" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="B16" s="35">
-        <v>-50388</v>
+      <c r="B16" s="25">
+        <v>-60743</v>
       </c>
-      <c r="C16" s="35">
-        <v>-73758</v>
+      <c r="C16" s="25">
+        <v>-80792</v>
       </c>
-      <c r="D16" s="36">
-        <v>23369</v>
+      <c r="D16" s="26">
+        <v>20049</v>
       </c>
-      <c r="E16" s="37">
-        <v>210474</v>
+      <c r="E16" s="27">
+        <v>170908</v>
       </c>
-      <c r="F16" s="35">
-        <v>137434</v>
+      <c r="F16" s="25">
+        <v>115880</v>
       </c>
-      <c r="G16" s="38">
-        <v>73040</v>
+      <c r="G16" s="28">
+        <v>55028</v>
       </c>
-      <c r="H16" s="39">
-        <v>260862</v>
+      <c r="H16" s="29">
+        <v>231651</v>
       </c>
-      <c r="I16" s="35">
-        <v>211192</v>
+      <c r="I16" s="25">
+        <v>196672</v>
       </c>
-      <c r="J16" s="36">
-        <v>49671</v>
+      <c r="J16" s="26">
+        <v>34979</v>
       </c>
     </row>
     <row r="17" spans="1:233" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="34" t="s">
+      <c r="A17" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="B17" s="35">
-        <v>-48262</v>
+      <c r="B17" s="25">
+        <v>-63733</v>
       </c>
-      <c r="C17" s="35">
-        <v>-71377</v>
+      <c r="C17" s="25">
+        <v>-82966</v>
       </c>
-      <c r="D17" s="36">
-        <v>23115</v>
+      <c r="D17" s="26">
+        <v>19233</v>
       </c>
-      <c r="E17" s="37">
-        <v>208776</v>
+      <c r="E17" s="27">
+        <v>174287</v>
       </c>
-      <c r="F17" s="35">
-        <v>135806</v>
+      <c r="F17" s="25">
+        <v>118981</v>
       </c>
-      <c r="G17" s="38">
-        <v>72970</v>
+      <c r="G17" s="28">
+        <v>55306</v>
       </c>
-      <c r="H17" s="39">
-        <v>257037</v>
+      <c r="H17" s="29">
+        <v>238020</v>
       </c>
-      <c r="I17" s="35">
-        <v>207183</v>
+      <c r="I17" s="25">
+        <v>201947</v>
       </c>
-      <c r="J17" s="36">
-        <v>49854</v>
+      <c r="J17" s="26">
+        <v>36073</v>
       </c>
     </row>
     <row r="18" spans="1:233" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="34" t="s">
+      <c r="A18" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="B18" s="35">
-        <v>-42720</v>
+      <c r="B18" s="25">
+        <v>-62625</v>
       </c>
-      <c r="C18" s="35">
-        <v>-67038</v>
+      <c r="C18" s="25">
+        <v>-81613</v>
       </c>
-      <c r="D18" s="36">
-        <v>24318</v>
+      <c r="D18" s="26">
+        <v>18987</v>
       </c>
-      <c r="E18" s="37">
-        <v>210157</v>
+      <c r="E18" s="27">
+        <v>178063</v>
       </c>
-      <c r="F18" s="35">
-        <v>136299</v>
+      <c r="F18" s="25">
+        <v>121965</v>
       </c>
-      <c r="G18" s="38">
-        <v>73857</v>
+      <c r="G18" s="28">
+        <v>56099</v>
       </c>
-      <c r="H18" s="39">
-        <v>252877</v>
+      <c r="H18" s="29">
+        <v>240689</v>
       </c>
-      <c r="I18" s="35">
-        <v>203338</v>
+      <c r="I18" s="25">
+        <v>203577</v>
       </c>
-      <c r="J18" s="36">
-        <v>49539</v>
+      <c r="J18" s="26">
+        <v>37111</v>
       </c>
     </row>
     <row r="19" spans="1:233" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="34" t="s">
+      <c r="A19" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="B19" s="35">
-        <v>-40596</v>
+      <c r="B19" s="25">
+        <v>-63678</v>
       </c>
-      <c r="C19" s="35">
-        <v>-64945</v>
+      <c r="C19" s="25">
+        <v>-82127</v>
       </c>
-      <c r="D19" s="36">
-        <v>24349</v>
+      <c r="D19" s="26">
+        <v>18450</v>
       </c>
-      <c r="E19" s="37">
-        <v>209739</v>
+      <c r="E19" s="27">
+        <v>182732</v>
       </c>
-      <c r="F19" s="35">
-        <v>136127</v>
+      <c r="F19" s="25">
+        <v>125761</v>
       </c>
-      <c r="G19" s="38">
-        <v>73611</v>
+      <c r="G19" s="28">
+        <v>56971</v>
       </c>
-      <c r="H19" s="39">
-        <v>250335</v>
+      <c r="H19" s="29">
+        <v>246410</v>
       </c>
-      <c r="I19" s="35">
-        <v>201072</v>
+      <c r="I19" s="25">
+        <v>207888</v>
       </c>
-      <c r="J19" s="36">
-        <v>49263</v>
+      <c r="J19" s="26">
+        <v>38522</v>
       </c>
     </row>
     <row r="20" spans="1:233" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="34" t="s">
+      <c r="A20" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="B20" s="35">
-        <v>-45421</v>
+      <c r="B20" s="25">
+        <v>-67307</v>
       </c>
-      <c r="C20" s="35">
-        <v>-69191</v>
+      <c r="C20" s="25">
+        <v>-86227</v>
       </c>
-      <c r="D20" s="36">
-        <v>23769</v>
+      <c r="D20" s="26">
+        <v>18920</v>
       </c>
-      <c r="E20" s="37">
-        <v>209883</v>
+      <c r="E20" s="27">
+        <v>185186</v>
       </c>
-      <c r="F20" s="35">
-        <v>136699</v>
+      <c r="F20" s="25">
+        <v>126789</v>
       </c>
-      <c r="G20" s="38">
-        <v>73184</v>
+      <c r="G20" s="28">
+        <v>58397</v>
       </c>
-      <c r="H20" s="39">
-        <v>255304</v>
+      <c r="H20" s="29">
+        <v>252494</v>
       </c>
-      <c r="I20" s="35">
-        <v>205889</v>
+      <c r="I20" s="25">
+        <v>213017</v>
       </c>
-      <c r="J20" s="36">
-        <v>49415</v>
+      <c r="J20" s="26">
+        <v>39477</v>
       </c>
-      <c r="K20" s="40"/>
-      <c r="L20" s="40"/>
-      <c r="M20" s="40"/>
-      <c r="N20" s="40"/>
-      <c r="O20" s="40"/>
-      <c r="P20" s="40"/>
-      <c r="Q20" s="40"/>
-      <c r="R20" s="40"/>
-      <c r="S20" s="40"/>
-      <c r="T20" s="40"/>
-      <c r="U20" s="40"/>
-      <c r="V20" s="40"/>
-      <c r="W20" s="40"/>
-      <c r="X20" s="40"/>
-      <c r="Y20" s="40"/>
-      <c r="Z20" s="40"/>
-      <c r="AA20" s="40"/>
-      <c r="AB20" s="40"/>
-      <c r="AC20" s="40"/>
-      <c r="AD20" s="40"/>
-      <c r="AE20" s="40"/>
-      <c r="AF20" s="40"/>
-      <c r="AG20" s="40"/>
-      <c r="AH20" s="40"/>
-      <c r="AI20" s="40"/>
-      <c r="AJ20" s="40"/>
-      <c r="AK20" s="40"/>
-      <c r="AL20" s="40"/>
-      <c r="AM20" s="40"/>
-      <c r="AN20" s="40"/>
-      <c r="AO20" s="40"/>
-      <c r="AP20" s="40"/>
-      <c r="AQ20" s="40"/>
-      <c r="AR20" s="40"/>
-      <c r="AS20" s="40"/>
-      <c r="AT20" s="40"/>
-      <c r="AU20" s="40"/>
-      <c r="AV20" s="40"/>
-      <c r="AW20" s="40"/>
-      <c r="AX20" s="40"/>
-      <c r="AY20" s="40"/>
-      <c r="AZ20" s="40"/>
-      <c r="BA20" s="40"/>
-      <c r="BB20" s="40"/>
-      <c r="BC20" s="40"/>
-      <c r="BD20" s="40"/>
-      <c r="BE20" s="40"/>
-      <c r="BF20" s="40"/>
-      <c r="BG20" s="40"/>
-      <c r="BH20" s="40"/>
-      <c r="BI20" s="40"/>
-      <c r="BJ20" s="40"/>
-      <c r="BK20" s="40"/>
-      <c r="BL20" s="40"/>
-      <c r="BM20" s="40"/>
-      <c r="BN20" s="40"/>
-      <c r="BO20" s="40"/>
-      <c r="BP20" s="40"/>
-      <c r="BQ20" s="40"/>
-      <c r="BR20" s="40"/>
-      <c r="BS20" s="40"/>
-      <c r="BT20" s="40"/>
-      <c r="BU20" s="40"/>
-      <c r="BV20" s="40"/>
-      <c r="BW20" s="40"/>
-      <c r="BX20" s="40"/>
-      <c r="BY20" s="40"/>
-      <c r="BZ20" s="40"/>
-      <c r="CA20" s="40"/>
-      <c r="CB20" s="40"/>
-      <c r="CC20" s="40"/>
-      <c r="CD20" s="40"/>
-      <c r="CE20" s="40"/>
-      <c r="CF20" s="40"/>
-      <c r="CG20" s="40"/>
-      <c r="CH20" s="40"/>
-      <c r="CI20" s="40"/>
-      <c r="CJ20" s="40"/>
-      <c r="CK20" s="40"/>
-      <c r="CL20" s="40"/>
-      <c r="CM20" s="40"/>
-      <c r="CN20" s="40"/>
-      <c r="CO20" s="40"/>
-      <c r="CP20" s="40"/>
-      <c r="CQ20" s="40"/>
-      <c r="CR20" s="40"/>
-      <c r="CS20" s="40"/>
-      <c r="CT20" s="40"/>
-      <c r="CU20" s="40"/>
-      <c r="CV20" s="40"/>
-      <c r="CW20" s="40"/>
-      <c r="CX20" s="40"/>
-      <c r="CY20" s="40"/>
-      <c r="CZ20" s="40"/>
-      <c r="DA20" s="40"/>
-      <c r="DB20" s="40"/>
-      <c r="DC20" s="40"/>
-      <c r="DD20" s="40"/>
-      <c r="DE20" s="40"/>
-      <c r="DF20" s="40"/>
-      <c r="DG20" s="40"/>
-      <c r="DH20" s="40"/>
-      <c r="DI20" s="40"/>
-      <c r="DJ20" s="40"/>
-      <c r="DK20" s="40"/>
-      <c r="DL20" s="40"/>
-      <c r="DM20" s="40"/>
-      <c r="DN20" s="40"/>
-      <c r="DO20" s="40"/>
-      <c r="DP20" s="40"/>
-      <c r="DQ20" s="40"/>
-      <c r="DR20" s="40"/>
-      <c r="DS20" s="40"/>
-      <c r="DT20" s="40"/>
-      <c r="DU20" s="40"/>
-      <c r="DV20" s="40"/>
-      <c r="DW20" s="40"/>
-      <c r="DX20" s="40"/>
-      <c r="DY20" s="40"/>
-      <c r="DZ20" s="40"/>
-      <c r="EA20" s="40"/>
-      <c r="EB20" s="40"/>
-      <c r="EC20" s="40"/>
-      <c r="ED20" s="40"/>
-      <c r="EE20" s="40"/>
-      <c r="EF20" s="40"/>
-      <c r="EG20" s="40"/>
-      <c r="EH20" s="40"/>
-      <c r="EI20" s="40"/>
-      <c r="EJ20" s="40"/>
-      <c r="EK20" s="40"/>
-      <c r="EL20" s="40"/>
-      <c r="EM20" s="40"/>
-      <c r="EN20" s="40"/>
-      <c r="EO20" s="40"/>
-      <c r="EP20" s="40"/>
-      <c r="EQ20" s="40"/>
-      <c r="ER20" s="40"/>
-      <c r="ES20" s="40"/>
-      <c r="ET20" s="40"/>
-      <c r="EU20" s="40"/>
-      <c r="EV20" s="40"/>
-      <c r="EW20" s="40"/>
-      <c r="EX20" s="40"/>
-      <c r="EY20" s="40"/>
-      <c r="EZ20" s="40"/>
-      <c r="FA20" s="40"/>
-      <c r="FB20" s="40"/>
-      <c r="FC20" s="40"/>
-      <c r="FD20" s="40"/>
-      <c r="FE20" s="40"/>
-      <c r="FF20" s="40"/>
-      <c r="FG20" s="40"/>
-      <c r="FH20" s="40"/>
-      <c r="FI20" s="40"/>
-      <c r="FJ20" s="40"/>
-      <c r="FK20" s="40"/>
-      <c r="FL20" s="40"/>
-      <c r="FM20" s="40"/>
-      <c r="FN20" s="40"/>
-      <c r="FO20" s="40"/>
-      <c r="FP20" s="40"/>
-      <c r="FQ20" s="40"/>
-      <c r="FR20" s="40"/>
-      <c r="FS20" s="40"/>
-      <c r="FT20" s="40"/>
-      <c r="FU20" s="40"/>
-      <c r="FV20" s="40"/>
-      <c r="FW20" s="40"/>
-      <c r="FX20" s="40"/>
-      <c r="FY20" s="40"/>
-      <c r="FZ20" s="40"/>
-      <c r="GA20" s="40"/>
-      <c r="GB20" s="40"/>
-      <c r="GC20" s="40"/>
-      <c r="GD20" s="40"/>
-      <c r="GE20" s="40"/>
-      <c r="GF20" s="40"/>
-      <c r="GG20" s="40"/>
-      <c r="GH20" s="40"/>
-      <c r="GI20" s="40"/>
-      <c r="GJ20" s="40"/>
-      <c r="GK20" s="40"/>
-      <c r="GL20" s="40"/>
-      <c r="GM20" s="40"/>
-      <c r="GN20" s="40"/>
-      <c r="GO20" s="40"/>
-      <c r="GP20" s="40"/>
-      <c r="GQ20" s="40"/>
-      <c r="GR20" s="40"/>
-      <c r="GS20" s="40"/>
-      <c r="GT20" s="40"/>
-      <c r="GU20" s="40"/>
-      <c r="GV20" s="40"/>
-      <c r="GW20" s="40"/>
-      <c r="GX20" s="40"/>
-      <c r="GY20" s="40"/>
-      <c r="GZ20" s="40"/>
-      <c r="HA20" s="40"/>
-      <c r="HB20" s="40"/>
-      <c r="HC20" s="40"/>
-      <c r="HD20" s="40"/>
-      <c r="HE20" s="40"/>
-      <c r="HF20" s="40"/>
-      <c r="HG20" s="40"/>
-      <c r="HH20" s="40"/>
-      <c r="HI20" s="40"/>
-      <c r="HJ20" s="40"/>
-      <c r="HK20" s="40"/>
-      <c r="HL20" s="40"/>
-      <c r="HM20" s="40"/>
-      <c r="HN20" s="40"/>
-      <c r="HO20" s="40"/>
-      <c r="HP20" s="40"/>
-      <c r="HQ20" s="40"/>
-      <c r="HR20" s="40"/>
-      <c r="HS20" s="40"/>
-      <c r="HT20" s="40"/>
-      <c r="HU20" s="40"/>
-      <c r="HV20" s="40"/>
-      <c r="HW20" s="40"/>
-      <c r="HX20" s="40"/>
-      <c r="HY20" s="40"/>
+      <c r="K20" s="36"/>
+      <c r="L20" s="36"/>
+      <c r="M20" s="36"/>
+      <c r="N20" s="36"/>
+      <c r="O20" s="36"/>
+      <c r="P20" s="36"/>
+      <c r="Q20" s="36"/>
+      <c r="R20" s="36"/>
+      <c r="S20" s="36"/>
+      <c r="T20" s="36"/>
+      <c r="U20" s="36"/>
+      <c r="V20" s="36"/>
+      <c r="W20" s="36"/>
+      <c r="X20" s="36"/>
+      <c r="Y20" s="36"/>
+      <c r="Z20" s="36"/>
+      <c r="AA20" s="36"/>
+      <c r="AB20" s="36"/>
+      <c r="AC20" s="36"/>
+      <c r="AD20" s="36"/>
+      <c r="AE20" s="36"/>
+      <c r="AF20" s="36"/>
+      <c r="AG20" s="36"/>
+      <c r="AH20" s="36"/>
+      <c r="AI20" s="36"/>
+      <c r="AJ20" s="36"/>
+      <c r="AK20" s="36"/>
+      <c r="AL20" s="36"/>
+      <c r="AM20" s="36"/>
+      <c r="AN20" s="36"/>
+      <c r="AO20" s="36"/>
+      <c r="AP20" s="36"/>
+      <c r="AQ20" s="36"/>
+      <c r="AR20" s="36"/>
+      <c r="AS20" s="36"/>
+      <c r="AT20" s="36"/>
+      <c r="AU20" s="36"/>
+      <c r="AV20" s="36"/>
+      <c r="AW20" s="36"/>
+      <c r="AX20" s="36"/>
+      <c r="AY20" s="36"/>
+      <c r="AZ20" s="36"/>
+      <c r="BA20" s="36"/>
+      <c r="BB20" s="36"/>
+      <c r="BC20" s="36"/>
+      <c r="BD20" s="36"/>
+      <c r="BE20" s="36"/>
+      <c r="BF20" s="36"/>
+      <c r="BG20" s="36"/>
+      <c r="BH20" s="36"/>
+      <c r="BI20" s="36"/>
+      <c r="BJ20" s="36"/>
+      <c r="BK20" s="36"/>
+      <c r="BL20" s="36"/>
+      <c r="BM20" s="36"/>
+      <c r="BN20" s="36"/>
+      <c r="BO20" s="36"/>
+      <c r="BP20" s="36"/>
+      <c r="BQ20" s="36"/>
+      <c r="BR20" s="36"/>
+      <c r="BS20" s="36"/>
+      <c r="BT20" s="36"/>
+      <c r="BU20" s="36"/>
+      <c r="BV20" s="36"/>
+      <c r="BW20" s="36"/>
+      <c r="BX20" s="36"/>
+      <c r="BY20" s="36"/>
+      <c r="BZ20" s="36"/>
+      <c r="CA20" s="36"/>
+      <c r="CB20" s="36"/>
+      <c r="CC20" s="36"/>
+      <c r="CD20" s="36"/>
+      <c r="CE20" s="36"/>
+      <c r="CF20" s="36"/>
+      <c r="CG20" s="36"/>
+      <c r="CH20" s="36"/>
+      <c r="CI20" s="36"/>
+      <c r="CJ20" s="36"/>
+      <c r="CK20" s="36"/>
+      <c r="CL20" s="36"/>
+      <c r="CM20" s="36"/>
+      <c r="CN20" s="36"/>
+      <c r="CO20" s="36"/>
+      <c r="CP20" s="36"/>
+      <c r="CQ20" s="36"/>
+      <c r="CR20" s="36"/>
+      <c r="CS20" s="36"/>
+      <c r="CT20" s="36"/>
+      <c r="CU20" s="36"/>
+      <c r="CV20" s="36"/>
+      <c r="CW20" s="36"/>
+      <c r="CX20" s="36"/>
+      <c r="CY20" s="36"/>
+      <c r="CZ20" s="36"/>
+      <c r="DA20" s="36"/>
+      <c r="DB20" s="36"/>
+      <c r="DC20" s="36"/>
+      <c r="DD20" s="36"/>
+      <c r="DE20" s="36"/>
+      <c r="DF20" s="36"/>
+      <c r="DG20" s="36"/>
+      <c r="DH20" s="36"/>
+      <c r="DI20" s="36"/>
+      <c r="DJ20" s="36"/>
+      <c r="DK20" s="36"/>
+      <c r="DL20" s="36"/>
+      <c r="DM20" s="36"/>
+      <c r="DN20" s="36"/>
+      <c r="DO20" s="36"/>
+      <c r="DP20" s="36"/>
+      <c r="DQ20" s="36"/>
+      <c r="DR20" s="36"/>
+      <c r="DS20" s="36"/>
+      <c r="DT20" s="36"/>
+      <c r="DU20" s="36"/>
+      <c r="DV20" s="36"/>
+      <c r="DW20" s="36"/>
+      <c r="DX20" s="36"/>
+      <c r="DY20" s="36"/>
+      <c r="DZ20" s="36"/>
+      <c r="EA20" s="36"/>
+      <c r="EB20" s="36"/>
+      <c r="EC20" s="36"/>
+      <c r="ED20" s="36"/>
+      <c r="EE20" s="36"/>
+      <c r="EF20" s="36"/>
+      <c r="EG20" s="36"/>
+      <c r="EH20" s="36"/>
+      <c r="EI20" s="36"/>
+      <c r="EJ20" s="36"/>
+      <c r="EK20" s="36"/>
+      <c r="EL20" s="36"/>
+      <c r="EM20" s="36"/>
+      <c r="EN20" s="36"/>
+      <c r="EO20" s="36"/>
+      <c r="EP20" s="36"/>
+      <c r="EQ20" s="36"/>
+      <c r="ER20" s="36"/>
+      <c r="ES20" s="36"/>
+      <c r="ET20" s="36"/>
+      <c r="EU20" s="36"/>
+      <c r="EV20" s="36"/>
+      <c r="EW20" s="36"/>
+      <c r="EX20" s="36"/>
+      <c r="EY20" s="36"/>
+      <c r="EZ20" s="36"/>
+      <c r="FA20" s="36"/>
+      <c r="FB20" s="36"/>
+      <c r="FC20" s="36"/>
+      <c r="FD20" s="36"/>
+      <c r="FE20" s="36"/>
+      <c r="FF20" s="36"/>
+      <c r="FG20" s="36"/>
+      <c r="FH20" s="36"/>
+      <c r="FI20" s="36"/>
+      <c r="FJ20" s="36"/>
+      <c r="FK20" s="36"/>
+      <c r="FL20" s="36"/>
+      <c r="FM20" s="36"/>
+      <c r="FN20" s="36"/>
+      <c r="FO20" s="36"/>
+      <c r="FP20" s="36"/>
+      <c r="FQ20" s="36"/>
+      <c r="FR20" s="36"/>
+      <c r="FS20" s="36"/>
+      <c r="FT20" s="36"/>
+      <c r="FU20" s="36"/>
+      <c r="FV20" s="36"/>
+      <c r="FW20" s="36"/>
+      <c r="FX20" s="36"/>
+      <c r="FY20" s="36"/>
+      <c r="FZ20" s="36"/>
+      <c r="GA20" s="36"/>
+      <c r="GB20" s="36"/>
+      <c r="GC20" s="36"/>
+      <c r="GD20" s="36"/>
+      <c r="GE20" s="36"/>
+      <c r="GF20" s="36"/>
+      <c r="GG20" s="36"/>
+      <c r="GH20" s="36"/>
+      <c r="GI20" s="36"/>
+      <c r="GJ20" s="36"/>
+      <c r="GK20" s="36"/>
+      <c r="GL20" s="36"/>
+      <c r="GM20" s="36"/>
+      <c r="GN20" s="36"/>
+      <c r="GO20" s="36"/>
+      <c r="GP20" s="36"/>
+      <c r="GQ20" s="36"/>
+      <c r="GR20" s="36"/>
+      <c r="GS20" s="36"/>
+      <c r="GT20" s="36"/>
+      <c r="GU20" s="36"/>
+      <c r="GV20" s="36"/>
+      <c r="GW20" s="36"/>
+      <c r="GX20" s="36"/>
+      <c r="GY20" s="36"/>
+      <c r="GZ20" s="36"/>
+      <c r="HA20" s="36"/>
+      <c r="HB20" s="36"/>
+      <c r="HC20" s="36"/>
+      <c r="HD20" s="36"/>
+      <c r="HE20" s="36"/>
+      <c r="HF20" s="36"/>
+      <c r="HG20" s="36"/>
+      <c r="HH20" s="36"/>
+      <c r="HI20" s="36"/>
+      <c r="HJ20" s="36"/>
+      <c r="HK20" s="36"/>
+      <c r="HL20" s="36"/>
+      <c r="HM20" s="36"/>
+      <c r="HN20" s="36"/>
+      <c r="HO20" s="36"/>
+      <c r="HP20" s="36"/>
+      <c r="HQ20" s="36"/>
+      <c r="HR20" s="36"/>
+      <c r="HS20" s="36"/>
+      <c r="HT20" s="36"/>
+      <c r="HU20" s="36"/>
+      <c r="HV20" s="36"/>
+      <c r="HW20" s="36"/>
+      <c r="HX20" s="36"/>
+      <c r="HY20" s="36"/>
     </row>
-    <row r="21" spans="1:233" ht="30.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="41" t="s">
+    <row r="21" spans="1:233" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="B21" s="42"/>
-      <c r="C21" s="42"/>
-      <c r="D21" s="43"/>
-      <c r="E21" s="44"/>
-      <c r="F21" s="42"/>
-      <c r="G21" s="45"/>
-      <c r="H21" s="46"/>
-      <c r="I21" s="42"/>
-      <c r="J21" s="43"/>
+      <c r="B21" s="25">
+        <v>-65802</v>
+      </c>
+      <c r="C21" s="25">
+        <v>-84770</v>
+      </c>
+      <c r="D21" s="26">
+        <v>18969</v>
+      </c>
+      <c r="E21" s="27">
+        <v>190877</v>
+      </c>
+      <c r="F21" s="25">
+        <v>131500</v>
+      </c>
+      <c r="G21" s="28">
+        <v>59377</v>
+      </c>
+      <c r="H21" s="29">
+        <v>256678</v>
+      </c>
+      <c r="I21" s="25">
+        <v>216270</v>
+      </c>
+      <c r="J21" s="26">
+        <v>40408</v>
+      </c>
     </row>
-    <row r="22" spans="1:233" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="28" t="s">
+    <row r="22" spans="1:233" ht="30.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="37" t="s">
+        <v>26</v>
+      </c>
+      <c r="B22" s="38"/>
+      <c r="C22" s="38"/>
+      <c r="D22" s="39"/>
+      <c r="E22" s="40"/>
+      <c r="F22" s="38"/>
+      <c r="G22" s="41"/>
+      <c r="H22" s="42"/>
+      <c r="I22" s="38"/>
+      <c r="J22" s="39"/>
+    </row>
+    <row r="23" spans="1:233" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="B22" s="29">
-        <v>-676684</v>
+      <c r="B23" s="25">
+        <v>-861383</v>
       </c>
-      <c r="C22" s="29">
-        <v>-922026</v>
+      <c r="C23" s="25">
+        <v>-1091384</v>
       </c>
-      <c r="D22" s="30">
-        <v>245342</v>
+      <c r="D23" s="26">
+        <v>230001</v>
       </c>
-      <c r="E22" s="31">
-        <v>2134441</v>
+      <c r="E23" s="27">
+        <v>2532955</v>
       </c>
-      <c r="F22" s="29">
-        <v>1428798</v>
+      <c r="F23" s="25">
+        <v>1761709</v>
       </c>
-      <c r="G22" s="32">
-        <v>705643</v>
+      <c r="G23" s="28">
+        <v>771247</v>
       </c>
-      <c r="H22" s="33">
-        <v>2811125</v>
+      <c r="H23" s="29">
+        <v>3394339</v>
       </c>
-      <c r="I22" s="29">
-        <v>2350825</v>
+      <c r="I23" s="25">
+        <v>2853093</v>
       </c>
-      <c r="J22" s="30">
-        <v>460301</v>
-      </c>
-    </row>
-    <row r="23" spans="1:233" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="34" t="s">
-        <v>13</v>
-      </c>
-      <c r="B23" s="35">
-        <v>-45452</v>
-      </c>
-      <c r="C23" s="35">
-        <v>-67839</v>
-      </c>
-      <c r="D23" s="36">
-        <v>22387</v>
-      </c>
-      <c r="E23" s="37">
-        <v>205091</v>
-      </c>
-      <c r="F23" s="35">
-        <v>135567</v>
-      </c>
-      <c r="G23" s="38">
-        <v>69524</v>
-      </c>
-      <c r="H23" s="39">
-        <v>250543</v>
-      </c>
-      <c r="I23" s="35">
-        <v>203406</v>
-      </c>
-      <c r="J23" s="36">
-        <v>47137</v>
+      <c r="J23" s="26">
+        <v>541245</v>
       </c>
     </row>
     <row r="24" spans="1:233" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="34" t="s">
+      <c r="A24" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="B24" s="31">
+        <v>-132671</v>
+      </c>
+      <c r="C24" s="31">
+        <v>-174633</v>
+      </c>
+      <c r="D24" s="32">
+        <v>41961</v>
+      </c>
+      <c r="E24" s="33">
+        <v>385162</v>
+      </c>
+      <c r="F24" s="31">
+        <v>265130</v>
+      </c>
+      <c r="G24" s="34">
+        <v>120032</v>
+      </c>
+      <c r="H24" s="35">
+        <v>517833</v>
+      </c>
+      <c r="I24" s="31">
+        <v>439762</v>
+      </c>
+      <c r="J24" s="32">
+        <v>78071</v>
+      </c>
+    </row>
+    <row r="25" spans="1:233" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="B24" s="35">
-        <v>-41639</v>
+      <c r="B25" s="25">
+        <v>-65124</v>
       </c>
-      <c r="C24" s="35">
-        <v>-63702</v>
+      <c r="C25" s="25">
+        <v>-85957</v>
       </c>
-      <c r="D24" s="36">
-        <v>22063</v>
+      <c r="D25" s="26">
+        <v>20834</v>
       </c>
-      <c r="E24" s="37">
-        <v>204819</v>
+      <c r="E25" s="27">
+        <v>194531</v>
       </c>
-      <c r="F24" s="35">
-        <v>135701</v>
+      <c r="F25" s="25">
+        <v>134597</v>
       </c>
-      <c r="G24" s="38">
-        <v>69118</v>
+      <c r="G25" s="28">
+        <v>59934</v>
       </c>
-      <c r="H24" s="39">
-        <v>246458</v>
+      <c r="H25" s="29">
+        <v>259654</v>
       </c>
-      <c r="I24" s="35">
-        <v>199403</v>
+      <c r="I25" s="25">
+        <v>220554</v>
       </c>
-      <c r="J24" s="36">
-        <v>47055</v>
-      </c>
-    </row>
-    <row r="25" spans="1:233" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="34" t="s">
-        <v>15</v>
-      </c>
-      <c r="B25" s="35">
-        <v>-47157</v>
-      </c>
-      <c r="C25" s="35">
-        <v>-68718</v>
-      </c>
-      <c r="D25" s="36">
-        <v>21561</v>
-      </c>
-      <c r="E25" s="37">
-        <v>187490</v>
-      </c>
-      <c r="F25" s="35">
-        <v>126875</v>
-      </c>
-      <c r="G25" s="38">
-        <v>60615</v>
-      </c>
-      <c r="H25" s="39">
-        <v>234647</v>
-      </c>
-      <c r="I25" s="35">
-        <v>195594</v>
-      </c>
-      <c r="J25" s="36">
-        <v>39053</v>
+      <c r="J25" s="26">
+        <v>39100</v>
       </c>
     </row>
     <row r="26" spans="1:233" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="34" t="s">
-        <v>16</v>
+      <c r="A26" s="24" t="s">
+        <v>15</v>
       </c>
-      <c r="B26" s="35">
-        <v>-52959</v>
+      <c r="B26" s="25">
+        <v>-67548</v>
       </c>
-      <c r="C26" s="35">
-        <v>-74616</v>
+      <c r="C26" s="25">
+        <v>-88675</v>
       </c>
-      <c r="D26" s="36">
-        <v>21657</v>
+      <c r="D26" s="26">
+        <v>21127</v>
       </c>
-      <c r="E26" s="37">
-        <v>150074</v>
+      <c r="E26" s="27">
+        <v>190631</v>
       </c>
-      <c r="F26" s="35">
-        <v>95025</v>
+      <c r="F26" s="25">
+        <v>130533</v>
       </c>
-      <c r="G26" s="38">
-        <v>55049</v>
+      <c r="G26" s="28">
+        <v>60098</v>
       </c>
-      <c r="H26" s="39">
-        <v>203033</v>
+      <c r="H26" s="29">
+        <v>258179</v>
       </c>
-      <c r="I26" s="35">
-        <v>169641</v>
+      <c r="I26" s="25">
+        <v>219208</v>
       </c>
-      <c r="J26" s="36">
-        <v>33392</v>
+      <c r="J26" s="26">
+        <v>38971</v>
       </c>
     </row>
     <row r="27" spans="1:233" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="34" t="s">
-        <v>17</v>
+      <c r="A27" s="24" t="s">
+        <v>16</v>
       </c>
-      <c r="B27" s="35">
-        <v>-54915</v>
+      <c r="B27" s="25">
+        <v>-71395</v>
       </c>
-      <c r="C27" s="35">
-        <v>-76652</v>
+      <c r="C27" s="25">
+        <v>-92389</v>
       </c>
-      <c r="D27" s="36">
-        <v>21736</v>
+      <c r="D27" s="26">
+        <v>20993</v>
       </c>
-      <c r="E27" s="37">
-        <v>146108</v>
+      <c r="E27" s="27">
+        <v>205355</v>
       </c>
-      <c r="F27" s="35">
-        <v>91051</v>
+      <c r="F27" s="25">
+        <v>143799</v>
       </c>
-      <c r="G27" s="38">
-        <v>55056</v>
+      <c r="G27" s="28">
+        <v>61556</v>
       </c>
-      <c r="H27" s="39">
-        <v>201023</v>
+      <c r="H27" s="29">
+        <v>276750</v>
       </c>
-      <c r="I27" s="35">
-        <v>167703</v>
+      <c r="I27" s="25">
+        <v>236188</v>
       </c>
-      <c r="J27" s="36">
-        <v>33320</v>
+      <c r="J27" s="26">
+        <v>40563</v>
       </c>
     </row>
     <row r="28" spans="1:233" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="34" t="s">
+      <c r="A28" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="B28" s="25">
+        <v>-65428</v>
+      </c>
+      <c r="C28" s="25">
+        <v>-86419</v>
+      </c>
+      <c r="D28" s="26">
+        <v>20990</v>
+      </c>
+      <c r="E28" s="27">
+        <v>207737</v>
+      </c>
+      <c r="F28" s="25">
+        <v>145311</v>
+      </c>
+      <c r="G28" s="28">
+        <v>62426</v>
+      </c>
+      <c r="H28" s="29">
+        <v>273166</v>
+      </c>
+      <c r="I28" s="25">
+        <v>231729</v>
+      </c>
+      <c r="J28" s="26">
+        <v>41436</v>
+      </c>
+    </row>
+    <row r="29" spans="1:233" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="B28" s="35">
-        <v>-50675</v>
+      <c r="B29" s="25">
+        <v>-67297</v>
       </c>
-      <c r="C28" s="35">
-        <v>-72004</v>
+      <c r="C29" s="25">
+        <v>-88686</v>
       </c>
-      <c r="D28" s="36">
-        <v>21329</v>
+      <c r="D29" s="26">
+        <v>21389</v>
       </c>
-      <c r="E28" s="37">
-        <v>158805</v>
+      <c r="E29" s="27">
+        <v>209717</v>
       </c>
-      <c r="F28" s="35">
-        <v>103702</v>
+      <c r="F29" s="25">
+        <v>145874</v>
       </c>
-      <c r="G28" s="38">
-        <v>55103</v>
+      <c r="G29" s="28">
+        <v>63843</v>
       </c>
-      <c r="H28" s="39">
-        <v>209480</v>
+      <c r="H29" s="29">
+        <v>277015</v>
       </c>
-      <c r="I28" s="35">
-        <v>175706</v>
+      <c r="I29" s="25">
+        <v>234561</v>
       </c>
-      <c r="J28" s="36">
-        <v>33774</v>
-      </c>
-    </row>
-    <row r="29" spans="1:233" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="34" t="s">
-        <v>19</v>
-      </c>
-      <c r="B29" s="35">
-        <v>-60743</v>
-      </c>
-      <c r="C29" s="35">
-        <v>-80792</v>
-      </c>
-      <c r="D29" s="36">
-        <v>20049</v>
-      </c>
-      <c r="E29" s="37">
-        <v>170908</v>
-      </c>
-      <c r="F29" s="35">
-        <v>115880</v>
-      </c>
-      <c r="G29" s="38">
-        <v>55028</v>
-      </c>
-      <c r="H29" s="39">
-        <v>231651</v>
-      </c>
-      <c r="I29" s="35">
-        <v>196672</v>
-      </c>
-      <c r="J29" s="36">
-        <v>34979</v>
+      <c r="J29" s="26">
+        <v>42454</v>
       </c>
     </row>
     <row r="30" spans="1:233" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="34" t="s">
+      <c r="A30" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="B30" s="25">
+        <v>-72228</v>
+      </c>
+      <c r="C30" s="25">
+        <v>-92642</v>
+      </c>
+      <c r="D30" s="26">
+        <v>20413</v>
+      </c>
+      <c r="E30" s="27">
+        <v>210933</v>
+      </c>
+      <c r="F30" s="25">
+        <v>146166</v>
+      </c>
+      <c r="G30" s="28">
+        <v>64767</v>
+      </c>
+      <c r="H30" s="29">
+        <v>283161</v>
+      </c>
+      <c r="I30" s="25">
+        <v>238808</v>
+      </c>
+      <c r="J30" s="26">
+        <v>44353</v>
+      </c>
+    </row>
+    <row r="31" spans="1:233" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="B30" s="35">
-        <v>-63733</v>
+      <c r="B31" s="25">
+        <v>-69712</v>
       </c>
-      <c r="C30" s="35">
-        <v>-82966</v>
+      <c r="C31" s="25">
+        <v>-87136</v>
       </c>
-      <c r="D30" s="36">
-        <v>19233</v>
+      <c r="D31" s="26">
+        <v>17424</v>
       </c>
-      <c r="E30" s="37">
-        <v>174287</v>
+      <c r="E31" s="27">
+        <v>213385</v>
       </c>
-      <c r="F30" s="35">
-        <v>118981</v>
+      <c r="F31" s="25">
+        <v>148870</v>
       </c>
-      <c r="G30" s="38">
-        <v>55306</v>
+      <c r="G31" s="28">
+        <v>64514</v>
       </c>
-      <c r="H30" s="39">
-        <v>238020</v>
+      <c r="H31" s="29">
+        <v>283097</v>
       </c>
-      <c r="I30" s="35">
-        <v>201947</v>
+      <c r="I31" s="25">
+        <v>236006</v>
       </c>
-      <c r="J30" s="36">
-        <v>36073</v>
-      </c>
-    </row>
-    <row r="31" spans="1:233" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="34" t="s">
-        <v>21</v>
-      </c>
-      <c r="B31" s="35">
-        <v>-62625</v>
-      </c>
-      <c r="C31" s="35">
-        <v>-81613</v>
-      </c>
-      <c r="D31" s="36">
-        <v>18987</v>
-      </c>
-      <c r="E31" s="37">
-        <v>178063</v>
-      </c>
-      <c r="F31" s="35">
-        <v>121965</v>
-      </c>
-      <c r="G31" s="38">
-        <v>56099</v>
-      </c>
-      <c r="H31" s="39">
-        <v>240689</v>
-      </c>
-      <c r="I31" s="35">
-        <v>203577</v>
-      </c>
-      <c r="J31" s="36">
-        <v>37111</v>
+      <c r="J31" s="26">
+        <v>47090</v>
       </c>
     </row>
     <row r="32" spans="1:233" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="34" t="s">
-        <v>22</v>
+      <c r="A32" s="24" t="s">
+        <v>21</v>
       </c>
-      <c r="B32" s="35">
-        <v>-63678</v>
+      <c r="B32" s="25">
+        <v>-72521</v>
       </c>
-      <c r="C32" s="35">
-        <v>-82127</v>
+      <c r="C32" s="25">
+        <v>-88605</v>
       </c>
-      <c r="D32" s="36">
-        <v>18450</v>
+      <c r="D32" s="26">
+        <v>16084</v>
       </c>
-      <c r="E32" s="37">
-        <v>182732</v>
+      <c r="E32" s="27">
+        <v>214498</v>
       </c>
-      <c r="F32" s="35">
-        <v>125761</v>
+      <c r="F32" s="25">
+        <v>150041</v>
       </c>
-      <c r="G32" s="38">
-        <v>56971</v>
+      <c r="G32" s="28">
+        <v>64457</v>
       </c>
-      <c r="H32" s="39">
-        <v>246410</v>
+      <c r="H32" s="29">
+        <v>287019</v>
       </c>
-      <c r="I32" s="35">
-        <v>207888</v>
+      <c r="I32" s="25">
+        <v>238646</v>
       </c>
-      <c r="J32" s="36">
-        <v>38522</v>
+      <c r="J32" s="26">
+        <v>48373</v>
       </c>
     </row>
     <row r="33" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="34" t="s">
-        <v>23</v>
+      <c r="A33" s="24" t="s">
+        <v>22</v>
       </c>
-      <c r="B33" s="35">
-        <v>-67307</v>
+      <c r="B33" s="25">
+        <v>-81159</v>
       </c>
-      <c r="C33" s="35">
-        <v>-86227</v>
+      <c r="C33" s="25">
+        <v>-97429</v>
       </c>
-      <c r="D33" s="36">
-        <v>18920</v>
+      <c r="D33" s="26">
+        <v>16269</v>
       </c>
-      <c r="E33" s="37">
-        <v>185186</v>
+      <c r="E33" s="27">
+        <v>208008</v>
       </c>
-      <c r="F33" s="35">
-        <v>126789</v>
+      <c r="F33" s="25">
+        <v>143019</v>
       </c>
-      <c r="G33" s="38">
-        <v>58397</v>
+      <c r="G33" s="28">
+        <v>64988</v>
       </c>
-      <c r="H33" s="39">
-        <v>252494</v>
+      <c r="H33" s="29">
+        <v>289167</v>
       </c>
-      <c r="I33" s="35">
-        <v>213017</v>
+      <c r="I33" s="25">
+        <v>240448</v>
       </c>
-      <c r="J33" s="36">
-        <v>39477</v>
+      <c r="J33" s="26">
+        <v>48719</v>
       </c>
     </row>
     <row r="34" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="34" t="s">
+      <c r="A34" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B34" s="25">
+        <v>-66945</v>
+      </c>
+      <c r="C34" s="25">
+        <v>-83324</v>
+      </c>
+      <c r="D34" s="26">
+        <v>16379</v>
+      </c>
+      <c r="E34" s="27">
+        <v>224752</v>
+      </c>
+      <c r="F34" s="25">
+        <v>159020</v>
+      </c>
+      <c r="G34" s="28">
+        <v>65732</v>
+      </c>
+      <c r="H34" s="29">
+        <v>291697</v>
+      </c>
+      <c r="I34" s="25">
+        <v>242344</v>
+      </c>
+      <c r="J34" s="26">
+        <v>49353</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="B34" s="35">
-        <v>-65802</v>
+      <c r="B35" s="25">
+        <v>-80068</v>
       </c>
-      <c r="C34" s="35">
-        <v>-84770</v>
+      <c r="C35" s="25">
+        <v>-98371</v>
       </c>
-      <c r="D34" s="36">
-        <v>18969</v>
+      <c r="D35" s="26">
+        <v>18303</v>
       </c>
-      <c r="E34" s="37">
-        <v>190877</v>
+      <c r="E35" s="27">
+        <v>225062</v>
       </c>
-      <c r="F34" s="35">
-        <v>131500</v>
+      <c r="F35" s="25">
+        <v>156271</v>
       </c>
-      <c r="G34" s="38">
-        <v>59377</v>
+      <c r="G35" s="28">
+        <v>68792</v>
       </c>
-      <c r="H34" s="39">
-        <v>256678</v>
+      <c r="H35" s="29">
+        <v>305130</v>
       </c>
-      <c r="I34" s="35">
-        <v>216270</v>
+      <c r="I35" s="25">
+        <v>254642</v>
       </c>
-      <c r="J34" s="36">
-        <v>40408</v>
+      <c r="J35" s="26">
+        <v>50488</v>
       </c>
     </row>
-    <row r="35" spans="1:10" ht="30.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="41" t="s">
-        <v>26</v>
+    <row r="36" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="24" t="s">
+        <v>25</v>
       </c>
-      <c r="B35" s="42"/>
-      <c r="C35" s="42"/>
-      <c r="D35" s="43"/>
-      <c r="E35" s="44"/>
-      <c r="F35" s="42"/>
-      <c r="G35" s="45"/>
-      <c r="H35" s="46"/>
-      <c r="I35" s="42"/>
-      <c r="J35" s="43"/>
-    </row>
-    <row r="36" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="28" t="s">
-        <v>12</v>
+      <c r="B36" s="25">
+        <v>-81957</v>
       </c>
-      <c r="B36" s="29">
-        <v>-859133</v>
+      <c r="C36" s="25">
+        <v>-101751</v>
       </c>
-      <c r="C36" s="29">
-        <v>-1090682</v>
+      <c r="D36" s="26">
+        <v>19794</v>
       </c>
-      <c r="D36" s="30">
-        <v>231549</v>
+      <c r="E36" s="27">
+        <v>228347</v>
       </c>
-      <c r="E36" s="31">
-        <v>2528537</v>
+      <c r="F36" s="25">
+        <v>158208</v>
       </c>
-      <c r="F36" s="29">
-        <v>1761967</v>
+      <c r="G36" s="28">
+        <v>70139</v>
       </c>
-      <c r="G36" s="32">
-        <v>766570</v>
+      <c r="H36" s="29">
+        <v>310304</v>
       </c>
-      <c r="H36" s="33">
-        <v>3387670</v>
+      <c r="I36" s="25">
+        <v>259959</v>
       </c>
-      <c r="I36" s="29">
-        <v>2852649</v>
-      </c>
-      <c r="J36" s="30">
-        <v>535021</v>
+      <c r="J36" s="26">
+        <v>50345</v>
       </c>
     </row>
-    <row r="37" spans="1:10" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="34" t="s">
+    <row r="37" spans="1:10" ht="30.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="B37" s="35">
-        <v>-65075</v>
+      <c r="B37" s="38"/>
+      <c r="C37" s="38"/>
+      <c r="D37" s="39"/>
+      <c r="E37" s="40"/>
+      <c r="F37" s="38"/>
+      <c r="G37" s="41"/>
+      <c r="H37" s="42"/>
+      <c r="I37" s="38"/>
+      <c r="J37" s="39"/>
+    </row>
+    <row r="38" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="30" t="s">
+        <v>13</v>
       </c>
-      <c r="C37" s="35">
-        <v>-85959</v>
+      <c r="B38" s="31">
+        <v>-178414</v>
       </c>
-      <c r="D37" s="36">
-        <v>20884</v>
+      <c r="C38" s="31">
+        <v>-216073</v>
       </c>
-      <c r="E37" s="37">
-        <v>194598</v>
+      <c r="D38" s="32">
+        <v>37659</v>
       </c>
-      <c r="F37" s="35">
-        <v>134595</v>
+      <c r="E38" s="33">
+        <v>453120</v>
       </c>
-      <c r="G37" s="38">
-        <v>60003</v>
+      <c r="F38" s="31">
+        <v>314760</v>
       </c>
-      <c r="H37" s="39">
-        <v>259673</v>
+      <c r="G38" s="34">
+        <v>138360</v>
       </c>
-      <c r="I37" s="35">
-        <v>220554</v>
+      <c r="H38" s="35">
+        <v>631534</v>
       </c>
-      <c r="J37" s="36">
-        <v>39119</v>
+      <c r="I38" s="31">
+        <v>530833</v>
+      </c>
+      <c r="J38" s="32">
+        <v>100701</v>
       </c>
     </row>
-    <row r="38" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="34" t="s">
+    <row r="39" spans="1:10" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="B38" s="35">
-        <v>-67559</v>
+      <c r="B39" s="25">
+        <v>-89229</v>
       </c>
-      <c r="C38" s="35">
-        <v>-88677</v>
+      <c r="C39" s="25">
+        <v>-108603</v>
       </c>
-      <c r="D38" s="36">
-        <v>21118</v>
+      <c r="D39" s="26">
+        <v>19374</v>
       </c>
-      <c r="E38" s="37">
-        <v>190633</v>
+      <c r="E39" s="27">
+        <v>224490</v>
       </c>
-      <c r="F38" s="35">
-        <v>130531</v>
+      <c r="F39" s="25">
+        <v>155983</v>
       </c>
-      <c r="G38" s="38">
-        <v>60102</v>
+      <c r="G39" s="28">
+        <v>68507</v>
       </c>
-      <c r="H38" s="39">
-        <v>258191</v>
+      <c r="H39" s="29">
+        <v>313720</v>
       </c>
-      <c r="I38" s="35">
-        <v>219208</v>
+      <c r="I39" s="25">
+        <v>264586</v>
       </c>
-      <c r="J38" s="36">
-        <v>38984</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="34" t="s">
-        <v>29</v>
-      </c>
-      <c r="B39" s="35">
-        <v>-71601</v>
-      </c>
-      <c r="C39" s="35">
-        <v>-92390</v>
-      </c>
-      <c r="D39" s="36">
-        <v>20789</v>
-      </c>
-      <c r="E39" s="37">
-        <v>205153</v>
-      </c>
-      <c r="F39" s="35">
-        <v>143797</v>
-      </c>
-      <c r="G39" s="38">
-        <v>61356</v>
-      </c>
-      <c r="H39" s="39">
-        <v>276754</v>
-      </c>
-      <c r="I39" s="35">
-        <v>236187</v>
-      </c>
-      <c r="J39" s="36">
-        <v>40567</v>
+      <c r="J39" s="26">
+        <v>49133</v>
       </c>
     </row>
     <row r="40" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="39" t="s">
-        <v>30</v>
+      <c r="A40" s="24" t="s">
+        <v>15</v>
       </c>
-      <c r="B40" s="35">
-        <v>-65530</v>
+      <c r="B40" s="25">
+        <v>-89185</v>
       </c>
-      <c r="C40" s="35">
-        <v>-86420</v>
+      <c r="C40" s="25">
+        <v>-107470</v>
       </c>
-      <c r="D40" s="36">
-        <v>20890</v>
+      <c r="D40" s="26">
+        <v>18285</v>
       </c>
-      <c r="E40" s="37">
-        <v>207766</v>
+      <c r="E40" s="27">
+        <v>228630</v>
       </c>
-      <c r="F40" s="35">
-        <v>145309</v>
+      <c r="F40" s="25">
+        <v>158777</v>
       </c>
-      <c r="G40" s="38">
-        <v>62457</v>
+      <c r="G40" s="28">
+        <v>69853</v>
       </c>
-      <c r="H40" s="39">
-        <v>273296</v>
+      <c r="H40" s="29">
+        <v>317814</v>
       </c>
-      <c r="I40" s="35">
-        <v>231729</v>
+      <c r="I40" s="25">
+        <v>266246</v>
       </c>
-      <c r="J40" s="36">
-        <v>41567</v>
+      <c r="J40" s="26">
+        <v>51568</v>
       </c>
     </row>
     <row r="41" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="39" t="s">
-        <v>31</v>
+      <c r="A41" s="24" t="s">
+        <v>16</v>
       </c>
-      <c r="B41" s="35">
-        <v>-67354</v>
+      <c r="B41" s="25" t="s">
+        <v>29</v>
       </c>
-      <c r="C41" s="35">
-        <v>-88688</v>
+      <c r="C41" s="25" t="s">
+        <v>29</v>
       </c>
-      <c r="D41" s="36">
-        <v>21333</v>
+      <c r="D41" s="26" t="s">
+        <v>29</v>
       </c>
-      <c r="E41" s="37">
-        <v>209742</v>
+      <c r="E41" s="27" t="s">
+        <v>29</v>
       </c>
-      <c r="F41" s="35">
-        <v>145873</v>
+      <c r="F41" s="25" t="s">
+        <v>29</v>
       </c>
-      <c r="G41" s="38">
-        <v>63869</v>
+      <c r="G41" s="28" t="s">
+        <v>29</v>
       </c>
-      <c r="H41" s="39">
-        <v>277096</v>
+      <c r="H41" s="29" t="s">
+        <v>29</v>
       </c>
-      <c r="I41" s="35">
-        <v>234560</v>
+      <c r="I41" s="25" t="s">
+        <v>29</v>
       </c>
-      <c r="J41" s="36">
-        <v>42536</v>
+      <c r="J41" s="26" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="42" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="39" t="s">
-        <v>32</v>
+      <c r="A42" s="24" t="s">
+        <v>17</v>
       </c>
-      <c r="B42" s="35">
-        <v>-72314</v>
+      <c r="B42" s="25" t="s">
+        <v>29</v>
       </c>
-      <c r="C42" s="35">
-        <v>-92643</v>
+      <c r="C42" s="25" t="s">
+        <v>29</v>
       </c>
-      <c r="D42" s="36">
-        <v>20329</v>
+      <c r="D42" s="26" t="s">
+        <v>29</v>
       </c>
-      <c r="E42" s="37">
-        <v>210718</v>
+      <c r="E42" s="27" t="s">
+        <v>29</v>
       </c>
-      <c r="F42" s="35">
-        <v>146164</v>
+      <c r="F42" s="25" t="s">
+        <v>29</v>
       </c>
-      <c r="G42" s="38">
-        <v>64553</v>
+      <c r="G42" s="28" t="s">
+        <v>29</v>
       </c>
-      <c r="H42" s="39">
-        <v>283032</v>
+      <c r="H42" s="29" t="s">
+        <v>29</v>
       </c>
-      <c r="I42" s="35">
-        <v>238808</v>
+      <c r="I42" s="25" t="s">
+        <v>29</v>
       </c>
-      <c r="J42" s="36">
-        <v>44224</v>
+      <c r="J42" s="26" t="s">
+        <v>29</v>
       </c>
     </row>
-    <row r="43" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="39" t="s">
-        <v>33</v>
+    <row r="43" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="24" t="s">
+        <v>18</v>
       </c>
-      <c r="B43" s="35">
-        <v>-69712</v>
+      <c r="B43" s="25" t="s">
+        <v>29</v>
       </c>
-      <c r="C43" s="35">
-        <v>-87061</v>
+      <c r="C43" s="25" t="s">
+        <v>29</v>
       </c>
-      <c r="D43" s="36">
-        <v>17348</v>
+      <c r="D43" s="26" t="s">
+        <v>29</v>
       </c>
-      <c r="E43" s="37">
-        <v>212616</v>
+      <c r="E43" s="27" t="s">
+        <v>29</v>
       </c>
-      <c r="F43" s="35">
-        <v>148958</v>
+      <c r="F43" s="25" t="s">
+        <v>29</v>
       </c>
-      <c r="G43" s="38">
-        <v>63657</v>
+      <c r="G43" s="28" t="s">
+        <v>29</v>
       </c>
-      <c r="H43" s="39">
-        <v>282328</v>
+      <c r="H43" s="29" t="s">
+        <v>29</v>
       </c>
-      <c r="I43" s="35">
-        <v>236019</v>
+      <c r="I43" s="25" t="s">
+        <v>29</v>
       </c>
-      <c r="J43" s="36">
-        <v>46309</v>
+      <c r="J43" s="26" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="44" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="39" t="s">
-        <v>34</v>
+      <c r="A44" s="24" t="s">
+        <v>19</v>
       </c>
-      <c r="B44" s="35">
-        <v>-72574</v>
+      <c r="B44" s="25" t="s">
+        <v>29</v>
       </c>
-      <c r="C44" s="35">
-        <v>-88541</v>
+      <c r="C44" s="25" t="s">
+        <v>29</v>
       </c>
-      <c r="D44" s="36">
-        <v>15967</v>
+      <c r="D44" s="26" t="s">
+        <v>29</v>
       </c>
-      <c r="E44" s="37">
-        <v>213397</v>
+      <c r="E44" s="27" t="s">
+        <v>29</v>
       </c>
-      <c r="F44" s="35">
-        <v>150115</v>
+      <c r="F44" s="25" t="s">
+        <v>29</v>
       </c>
-      <c r="G44" s="38">
-        <v>63282</v>
+      <c r="G44" s="28" t="s">
+        <v>29</v>
       </c>
-      <c r="H44" s="39">
-        <v>285971</v>
+      <c r="H44" s="29" t="s">
+        <v>29</v>
       </c>
-      <c r="I44" s="35">
-        <v>238656</v>
+      <c r="I44" s="25" t="s">
+        <v>29</v>
       </c>
-      <c r="J44" s="36">
-        <v>47316</v>
+      <c r="J44" s="26" t="s">
+        <v>29</v>
       </c>
     </row>
-    <row r="45" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="39" t="s">
-        <v>35</v>
+    <row r="45" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="24" t="s">
+        <v>20</v>
       </c>
-      <c r="B45" s="35">
-        <v>-80814</v>
+      <c r="B45" s="25" t="s">
+        <v>29</v>
       </c>
-      <c r="C45" s="35">
-        <v>-97362</v>
+      <c r="C45" s="25" t="s">
+        <v>29</v>
       </c>
-      <c r="D45" s="36">
-        <v>16548</v>
+      <c r="D45" s="26" t="s">
+        <v>29</v>
       </c>
-      <c r="E45" s="37">
-        <v>206989</v>
+      <c r="E45" s="27" t="s">
+        <v>29</v>
       </c>
-      <c r="F45" s="35">
-        <v>143100</v>
+      <c r="F45" s="25" t="s">
+        <v>29</v>
       </c>
-      <c r="G45" s="38">
-        <v>63889</v>
+      <c r="G45" s="28" t="s">
+        <v>29</v>
       </c>
-      <c r="H45" s="39">
-        <v>287804</v>
+      <c r="H45" s="29" t="s">
+        <v>29</v>
       </c>
-      <c r="I45" s="35">
-        <v>240462</v>
+      <c r="I45" s="25" t="s">
+        <v>29</v>
       </c>
-      <c r="J45" s="36">
-        <v>47341</v>
+      <c r="J45" s="26" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="46" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="34" t="s">
-        <v>36</v>
+      <c r="A46" s="24" t="s">
+        <v>21</v>
       </c>
-      <c r="B46" s="35">
-        <v>-66537</v>
+      <c r="B46" s="25" t="s">
+        <v>29</v>
       </c>
-      <c r="C46" s="35">
-        <v>-83238</v>
+      <c r="C46" s="25" t="s">
+        <v>29</v>
       </c>
-      <c r="D46" s="36">
-        <v>16701</v>
+      <c r="D46" s="26" t="s">
+        <v>29</v>
       </c>
-      <c r="E46" s="37">
-        <v>224050</v>
+      <c r="E46" s="27" t="s">
+        <v>29</v>
       </c>
-      <c r="F46" s="35">
-        <v>159008</v>
+      <c r="F46" s="25" t="s">
+        <v>29</v>
       </c>
-      <c r="G46" s="38">
-        <v>65042</v>
+      <c r="G46" s="28" t="s">
+        <v>29</v>
       </c>
-      <c r="H46" s="39">
-        <v>290586</v>
+      <c r="H46" s="29" t="s">
+        <v>29</v>
       </c>
-      <c r="I46" s="35">
-        <v>242246</v>
+      <c r="I46" s="25" t="s">
+        <v>29</v>
       </c>
-      <c r="J46" s="36">
-        <v>48340</v>
+      <c r="J46" s="26" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="47" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="34" t="s">
-        <v>37</v>
+      <c r="A47" s="24" t="s">
+        <v>22</v>
       </c>
-      <c r="B47" s="35">
-        <v>-79331</v>
+      <c r="B47" s="25" t="s">
+        <v>29</v>
       </c>
-      <c r="C47" s="35">
-        <v>-98272</v>
+      <c r="C47" s="25" t="s">
+        <v>29</v>
       </c>
-      <c r="D47" s="36">
-        <v>18941</v>
+      <c r="D47" s="26" t="s">
+        <v>29</v>
       </c>
-      <c r="E47" s="37">
-        <v>224734</v>
+      <c r="E47" s="27" t="s">
+        <v>29</v>
       </c>
-      <c r="F47" s="35">
-        <v>156250</v>
+      <c r="F47" s="25" t="s">
+        <v>29</v>
       </c>
-      <c r="G47" s="38">
-        <v>68483</v>
+      <c r="G47" s="28" t="s">
+        <v>29</v>
       </c>
-      <c r="H47" s="39">
-        <v>304065</v>
+      <c r="H47" s="29" t="s">
+        <v>29</v>
       </c>
-      <c r="I47" s="35">
-        <v>254522</v>
+      <c r="I47" s="25" t="s">
+        <v>29</v>
       </c>
-      <c r="J47" s="36">
-        <v>49543</v>
+      <c r="J47" s="26" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="48" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="28" t="s">
+      <c r="A48" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B48" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="C48" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="D48" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="E48" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="F48" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="G48" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="H48" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="I48" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="J48" s="26" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="B48" s="29">
-        <v>-80731</v>
+      <c r="B49" s="25" t="s">
+        <v>29</v>
       </c>
-      <c r="C48" s="29">
-        <v>-101431</v>
+      <c r="C49" s="25" t="s">
+        <v>29</v>
       </c>
-      <c r="D48" s="30">
-        <v>20700</v>
+      <c r="D49" s="26" t="s">
+        <v>29</v>
       </c>
-      <c r="E48" s="31">
-        <v>228143</v>
+      <c r="E49" s="27" t="s">
+        <v>29</v>
       </c>
-      <c r="F48" s="29">
-        <v>158268</v>
+      <c r="F49" s="25" t="s">
+        <v>29</v>
       </c>
-      <c r="G48" s="32">
-        <v>69875</v>
+      <c r="G49" s="28" t="s">
+        <v>29</v>
       </c>
-      <c r="H48" s="33">
-        <v>308874</v>
+      <c r="H49" s="29" t="s">
+        <v>29</v>
       </c>
-      <c r="I48" s="29">
-        <v>259699</v>
+      <c r="I49" s="25" t="s">
+        <v>29</v>
       </c>
-      <c r="J48" s="30">
-        <v>49175</v>
+      <c r="J49" s="26" t="s">
+        <v>29</v>
       </c>
     </row>
-    <row r="49" spans="1:10" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="47" t="s">
-        <v>38</v>
+    <row r="50" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="24" t="s">
+        <v>25</v>
       </c>
-      <c r="B49" s="48"/>
-      <c r="C49" s="48"/>
-      <c r="D49" s="48"/>
-      <c r="E49" s="48"/>
-      <c r="F49" s="48"/>
-      <c r="G49" s="48"/>
-      <c r="H49" s="48"/>
-      <c r="I49" s="49"/>
-      <c r="J49" s="49"/>
-    </row>
-    <row r="50" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="50"/>
-      <c r="B50" s="49">
-        <v>-80172</v>
+      <c r="B50" s="25" t="s">
+        <v>29</v>
       </c>
-      <c r="C50" s="49">
-        <v>-98991</v>
+      <c r="C50" s="25" t="s">
+        <v>29</v>
       </c>
-      <c r="D50" s="49">
-        <v>18818</v>
+      <c r="D50" s="26" t="s">
+        <v>29</v>
       </c>
-      <c r="E50" s="49">
-        <v>224215</v>
+      <c r="E50" s="33" t="s">
+        <v>29</v>
       </c>
-      <c r="F50" s="49">
-        <v>155942</v>
+      <c r="F50" s="31" t="s">
+        <v>29</v>
       </c>
-      <c r="G50" s="49">
-        <v>68273</v>
+      <c r="G50" s="34" t="s">
+        <v>29</v>
       </c>
-      <c r="H50" s="49">
-        <v>304388</v>
+      <c r="H50" s="29" t="s">
+        <v>29</v>
       </c>
-      <c r="I50" s="49">
-        <v>254933</v>
+      <c r="I50" s="25" t="s">
+        <v>29</v>
       </c>
-      <c r="J50" s="49">
-        <v>49455</v>
+      <c r="J50" s="26" t="s">
+        <v>29</v>
       </c>
     </row>
-    <row r="51" spans="1:10" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="47" t="s">
-        <v>39</v>
+    <row r="51" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="43" t="s">
+        <v>30</v>
       </c>
-      <c r="B51" s="11"/>
-      <c r="C51" s="11"/>
-      <c r="D51" s="11"/>
-      <c r="E51" s="11"/>
-      <c r="F51" s="11"/>
-      <c r="G51" s="11"/>
-      <c r="H51" s="11"/>
-      <c r="I51" s="47"/>
-      <c r="J51" s="47"/>
+      <c r="B51" s="44"/>
+      <c r="C51" s="44"/>
+      <c r="D51" s="44"/>
+      <c r="E51" s="44"/>
+      <c r="F51" s="44"/>
+      <c r="G51" s="44"/>
+      <c r="H51" s="44"/>
+      <c r="I51" s="45"/>
+      <c r="J51" s="45"/>
     </row>
-    <row r="52" spans="1:10" s="51" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="47" t="s">
-        <v>40</v>
+    <row r="52" spans="1:10" s="48" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="46"/>
+      <c r="B52" s="47">
+        <v>-89692</v>
       </c>
-      <c r="B52" s="47"/>
-      <c r="C52" s="47"/>
-      <c r="D52" s="47"/>
-      <c r="E52" s="47"/>
-      <c r="F52" s="47"/>
-      <c r="G52" s="47"/>
-      <c r="H52" s="47"/>
-      <c r="I52" s="47"/>
-      <c r="J52" s="47"/>
-    </row>
-    <row r="53" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="2" t="s">
-        <v>41</v>
+      <c r="C52" s="47">
+        <v>-108864</v>
+      </c>
+      <c r="D52" s="47">
+        <v>19172</v>
+      </c>
+      <c r="E52" s="47">
+        <v>224400</v>
+      </c>
+      <c r="F52" s="47">
+        <v>155890</v>
+      </c>
+      <c r="G52" s="47">
+        <v>68511</v>
+      </c>
+      <c r="H52" s="47">
+        <v>314093</v>
+      </c>
+      <c r="I52" s="47">
+        <v>264754</v>
+      </c>
+      <c r="J52" s="47">
+        <v>49339</v>
       </c>
     </row>
+    <row r="53" spans="1:10" s="48" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="46" t="s">
+        <v>31</v>
+      </c>
+      <c r="B53" s="11"/>
+      <c r="C53" s="11"/>
+      <c r="D53" s="11"/>
+      <c r="E53" s="11"/>
+      <c r="F53" s="11"/>
+      <c r="G53" s="11"/>
+      <c r="H53" s="11"/>
+      <c r="I53" s="46"/>
+      <c r="J53" s="46"/>
+    </row>
+    <row r="54" spans="1:10" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="46" t="s">
+        <v>32</v>
+      </c>
+      <c r="B54" s="46"/>
+      <c r="C54" s="46"/>
+      <c r="D54" s="46"/>
+      <c r="E54" s="46"/>
+      <c r="F54" s="46"/>
+      <c r="G54" s="46"/>
+      <c r="H54" s="46"/>
+      <c r="I54" s="46"/>
+      <c r="J54" s="46"/>
+    </row>
+    <row r="55" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A62" s="51"/>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A63" s="51"/>
+    </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A62:A63"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.7" right="0.7" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
-  <pageSetup scale="69" orientation="portrait" useFirstPageNumber="1" r:id="rId1"/>
+  <pageSetup scale="65" orientation="portrait" useFirstPageNumber="1" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;C- &amp;P -</oddHeader>
   </headerFooter>
